--- a/BackTest/2020-01-16 BackTest PCM.xlsx
+++ b/BackTest/2020-01-16 BackTest PCM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M129"/>
+  <dimension ref="A1:N129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -497,6 +503,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -524,7 +531,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -532,6 +539,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -559,7 +567,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -567,6 +575,7 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,6 +611,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -637,6 +647,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,6 +683,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -707,6 +719,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -742,6 +755,7 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -777,6 +791,7 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -812,6 +827,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -847,6 +863,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -882,6 +899,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -917,6 +935,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -952,6 +971,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -987,6 +1007,7 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1022,6 +1043,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1057,6 +1079,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1096,6 +1119,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1139,6 +1163,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1182,6 +1207,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1217,6 +1243,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1252,6 +1279,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1287,6 +1315,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,6 +1351,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1357,6 +1387,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1392,6 +1423,7 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1427,6 +1459,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1462,6 +1495,7 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1497,6 +1531,7 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1532,6 +1567,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1567,6 +1603,7 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1602,6 +1639,7 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1637,6 +1675,7 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1672,6 +1711,7 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1707,6 +1747,7 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1742,6 +1783,7 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1777,6 +1819,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1812,6 +1855,7 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1847,6 +1891,7 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1882,6 +1927,7 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1917,6 +1963,7 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1952,6 +1999,7 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1987,6 +2035,7 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2022,6 +2071,7 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2057,6 +2107,7 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2092,6 +2143,7 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2127,6 +2179,7 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2162,6 +2215,7 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2197,6 +2251,7 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2232,6 +2287,7 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2267,6 +2323,7 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2302,6 +2359,7 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2337,6 +2395,7 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2372,6 +2431,7 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2407,6 +2467,7 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2442,6 +2503,7 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2477,6 +2539,7 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2512,6 +2575,7 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2547,6 +2611,7 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2582,6 +2647,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2617,6 +2683,7 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2652,6 +2719,7 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2687,6 +2755,7 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2722,6 +2791,7 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2757,6 +2827,7 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2792,6 +2863,7 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2827,6 +2899,7 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2862,6 +2935,7 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2897,6 +2971,7 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2932,6 +3007,7 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2967,6 +3043,7 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3002,6 +3079,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3037,6 +3115,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3072,6 +3151,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3107,6 +3187,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3142,6 +3223,7 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3177,6 +3259,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3212,6 +3295,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3247,6 +3331,7 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3282,6 +3367,7 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3317,6 +3403,7 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3352,6 +3439,7 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3387,6 +3475,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3422,6 +3511,7 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3457,6 +3547,7 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3492,6 +3583,7 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3527,6 +3619,7 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3562,6 +3655,7 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3597,6 +3691,7 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3624,7 +3719,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
@@ -3632,6 +3727,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3667,6 +3763,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3694,7 +3791,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
@@ -3702,6 +3799,7 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3729,7 +3827,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
@@ -3737,6 +3835,7 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3772,6 +3871,7 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3799,7 +3899,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
@@ -3807,6 +3907,7 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3834,7 +3935,7 @@
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
@@ -3842,6 +3943,7 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3877,6 +3979,7 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3912,6 +4015,7 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3947,6 +4051,7 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3974,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
@@ -3982,6 +4087,7 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4009,7 +4115,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
@@ -4017,6 +4123,7 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4052,6 +4159,7 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4087,6 +4195,7 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4122,6 +4231,7 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4157,6 +4267,7 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4184,7 +4295,7 @@
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
@@ -4192,6 +4303,7 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4219,7 +4331,7 @@
         <v>1</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109" t="n">
         <v>7.748</v>
@@ -4233,6 +4345,7 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4260,7 +4373,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
@@ -4272,6 +4385,7 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4299,7 +4413,7 @@
         <v>1</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111" t="n">
         <v>7.73</v>
@@ -4313,6 +4427,7 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4340,7 +4455,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
@@ -4352,6 +4467,7 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4379,7 +4495,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
@@ -4391,6 +4507,7 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4430,6 +4547,7 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4469,6 +4587,7 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4508,6 +4627,7 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4547,6 +4667,7 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4586,6 +4707,7 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4625,6 +4747,7 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4666,6 +4789,7 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4707,6 +4831,7 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4748,6 +4873,7 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4789,6 +4915,7 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4828,6 +4955,7 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4867,6 +4995,7 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4906,6 +5035,7 @@
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4947,6 +5077,7 @@
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4986,6 +5117,7 @@
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5025,6 +5157,7 @@
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-16 BackTest PCM.xlsx
+++ b/BackTest/2020-01-16 BackTest PCM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N129"/>
+  <dimension ref="A1:N158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Price_gap</t>
+          <t>Price_point</t>
         </is>
       </c>
     </row>
@@ -438,28 +438,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>7.422</v>
+        <v>7.901</v>
       </c>
       <c r="C2" t="n">
-        <v>7.422</v>
+        <v>7.901</v>
       </c>
       <c r="D2" t="n">
-        <v>7.422</v>
+        <v>7.901</v>
       </c>
       <c r="E2" t="n">
-        <v>7.422</v>
+        <v>7.901</v>
       </c>
       <c r="F2" t="n">
-        <v>87532.2895</v>
+        <v>5207.4592</v>
       </c>
       <c r="G2" t="n">
-        <v>-2777205.5243</v>
+        <v>-1003867.8632</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -474,28 +474,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>7.422</v>
+        <v>7.902</v>
       </c>
       <c r="C3" t="n">
-        <v>7.409</v>
+        <v>7.902</v>
       </c>
       <c r="D3" t="n">
-        <v>7.422</v>
+        <v>7.902</v>
       </c>
       <c r="E3" t="n">
-        <v>7.409</v>
+        <v>7.902</v>
       </c>
       <c r="F3" t="n">
-        <v>153405.2401</v>
+        <v>62761.5004</v>
       </c>
       <c r="G3" t="n">
-        <v>-2930610.7644</v>
+        <v>-941106.3628000002</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>7.409</v>
+        <v>7.9</v>
       </c>
       <c r="C4" t="n">
-        <v>7.4</v>
+        <v>7.9</v>
       </c>
       <c r="D4" t="n">
-        <v>7.409</v>
+        <v>7.9</v>
       </c>
       <c r="E4" t="n">
-        <v>7.4</v>
+        <v>7.9</v>
       </c>
       <c r="F4" t="n">
-        <v>1012078.9953</v>
+        <v>14988.426</v>
       </c>
       <c r="G4" t="n">
-        <v>-3942689.7597</v>
+        <v>-956094.7888000002</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -546,22 +546,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>7.4</v>
+        <v>7.9</v>
       </c>
       <c r="C5" t="n">
-        <v>7.4</v>
+        <v>7.9</v>
       </c>
       <c r="D5" t="n">
-        <v>7.4</v>
+        <v>7.9</v>
       </c>
       <c r="E5" t="n">
-        <v>7.4</v>
+        <v>7.9</v>
       </c>
       <c r="F5" t="n">
-        <v>96881.8147</v>
+        <v>1284.9035</v>
       </c>
       <c r="G5" t="n">
-        <v>-3942689.7597</v>
+        <v>-956094.7888000002</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -582,28 +582,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>7.566</v>
+        <v>7.9</v>
       </c>
       <c r="C6" t="n">
-        <v>7.566</v>
+        <v>7.9</v>
       </c>
       <c r="D6" t="n">
-        <v>7.566</v>
+        <v>7.9</v>
       </c>
       <c r="E6" t="n">
-        <v>7.566</v>
+        <v>7.9</v>
       </c>
       <c r="F6" t="n">
-        <v>67</v>
+        <v>6751.3089</v>
       </c>
       <c r="G6" t="n">
-        <v>-3942622.7597</v>
+        <v>-956094.7888000002</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -618,28 +618,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>7.566</v>
+        <v>7.85</v>
       </c>
       <c r="C7" t="n">
-        <v>7.566</v>
+        <v>7.85</v>
       </c>
       <c r="D7" t="n">
-        <v>7.566</v>
+        <v>7.85</v>
       </c>
       <c r="E7" t="n">
-        <v>7.566</v>
+        <v>7.85</v>
       </c>
       <c r="F7" t="n">
-        <v>67</v>
+        <v>5385.5256</v>
       </c>
       <c r="G7" t="n">
-        <v>-3942622.7597</v>
+        <v>-961480.3144000003</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -654,28 +654,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>7.402</v>
+        <v>7.813</v>
       </c>
       <c r="C8" t="n">
-        <v>7.402</v>
+        <v>7.81</v>
       </c>
       <c r="D8" t="n">
-        <v>7.402</v>
+        <v>7.813</v>
       </c>
       <c r="E8" t="n">
-        <v>7.402</v>
+        <v>7.81</v>
       </c>
       <c r="F8" t="n">
-        <v>2853.6685</v>
+        <v>28899</v>
       </c>
       <c r="G8" t="n">
-        <v>-3945476.4282</v>
+        <v>-990379.3144000003</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -690,28 +690,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>7.402</v>
+        <v>7.77</v>
       </c>
       <c r="C9" t="n">
-        <v>7.518</v>
+        <v>7.406</v>
       </c>
       <c r="D9" t="n">
-        <v>7.518</v>
+        <v>7.77</v>
       </c>
       <c r="E9" t="n">
-        <v>7.402</v>
+        <v>7.406</v>
       </c>
       <c r="F9" t="n">
-        <v>64363.8155</v>
+        <v>210001.4408</v>
       </c>
       <c r="G9" t="n">
-        <v>-3881112.6127</v>
+        <v>-1200380.7552</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -726,22 +726,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>7.401</v>
+        <v>7.81</v>
       </c>
       <c r="C10" t="n">
-        <v>7.401</v>
+        <v>7.81</v>
       </c>
       <c r="D10" t="n">
-        <v>7.401</v>
+        <v>7.81</v>
       </c>
       <c r="E10" t="n">
-        <v>7.401</v>
+        <v>7.81</v>
       </c>
       <c r="F10" t="n">
-        <v>202985.6817</v>
+        <v>65</v>
       </c>
       <c r="G10" t="n">
-        <v>-4084098.2944</v>
+        <v>-1200315.7552</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -762,28 +762,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>7.516</v>
+        <v>7.421</v>
       </c>
       <c r="C11" t="n">
-        <v>7.516</v>
+        <v>7.421</v>
       </c>
       <c r="D11" t="n">
-        <v>7.516</v>
+        <v>7.421</v>
       </c>
       <c r="E11" t="n">
-        <v>7.516</v>
+        <v>7.421</v>
       </c>
       <c r="F11" t="n">
-        <v>67</v>
+        <v>69504.6491</v>
       </c>
       <c r="G11" t="n">
-        <v>-4084031.2944</v>
+        <v>-1269820.4043</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -798,22 +798,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>7.401</v>
+        <v>7.799</v>
       </c>
       <c r="C12" t="n">
-        <v>7.401</v>
+        <v>7.799</v>
       </c>
       <c r="D12" t="n">
-        <v>7.401</v>
+        <v>7.799</v>
       </c>
       <c r="E12" t="n">
-        <v>7.401</v>
+        <v>7.799</v>
       </c>
       <c r="F12" t="n">
-        <v>4205.5836</v>
+        <v>65.0098</v>
       </c>
       <c r="G12" t="n">
-        <v>-4088236.878</v>
+        <v>-1269755.3945</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -834,22 +834,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>7.4</v>
+        <v>7.459</v>
       </c>
       <c r="C13" t="n">
-        <v>7.4</v>
+        <v>7.422</v>
       </c>
       <c r="D13" t="n">
-        <v>7.4</v>
+        <v>7.459</v>
       </c>
       <c r="E13" t="n">
-        <v>7.4</v>
+        <v>7.422</v>
       </c>
       <c r="F13" t="n">
-        <v>531000</v>
+        <v>275100</v>
       </c>
       <c r="G13" t="n">
-        <v>-4619236.878</v>
+        <v>-1544855.3945</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>7.4</v>
+        <v>7.737</v>
       </c>
       <c r="C14" t="n">
-        <v>7.34</v>
+        <v>7.737</v>
       </c>
       <c r="D14" t="n">
-        <v>7.4</v>
+        <v>7.737</v>
       </c>
       <c r="E14" t="n">
-        <v>7.34</v>
+        <v>7.737</v>
       </c>
       <c r="F14" t="n">
-        <v>372604.6218</v>
+        <v>65</v>
       </c>
       <c r="G14" t="n">
-        <v>-4991841.4998</v>
+        <v>-1544790.3945</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>7.489</v>
+        <v>7.432</v>
       </c>
       <c r="C15" t="n">
-        <v>7.489</v>
+        <v>7.432</v>
       </c>
       <c r="D15" t="n">
-        <v>7.489</v>
+        <v>7.432</v>
       </c>
       <c r="E15" t="n">
-        <v>7.489</v>
+        <v>7.432</v>
       </c>
       <c r="F15" t="n">
-        <v>67</v>
+        <v>151189.5201</v>
       </c>
       <c r="G15" t="n">
-        <v>-4991774.4998</v>
+        <v>-1695979.9146</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -942,22 +942,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>7.479</v>
+        <v>7.723</v>
       </c>
       <c r="C16" t="n">
-        <v>7.48</v>
+        <v>7.723</v>
       </c>
       <c r="D16" t="n">
-        <v>7.48</v>
+        <v>7.723</v>
       </c>
       <c r="E16" t="n">
-        <v>7.479</v>
+        <v>7.723</v>
       </c>
       <c r="F16" t="n">
-        <v>100000</v>
+        <v>1586.0792</v>
       </c>
       <c r="G16" t="n">
-        <v>-5091774.4998</v>
+        <v>-1694393.8354</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -978,22 +978,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>7.35</v>
+        <v>7.724</v>
       </c>
       <c r="C17" t="n">
-        <v>7.35</v>
+        <v>7.724</v>
       </c>
       <c r="D17" t="n">
-        <v>7.35</v>
+        <v>7.724</v>
       </c>
       <c r="E17" t="n">
-        <v>7.35</v>
+        <v>7.724</v>
       </c>
       <c r="F17" t="n">
-        <v>17246.8393</v>
+        <v>2335.8287</v>
       </c>
       <c r="G17" t="n">
-        <v>-5109021.3391</v>
+        <v>-1692058.0067</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1014,22 +1014,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>7.35</v>
+        <v>7.724</v>
       </c>
       <c r="C18" t="n">
-        <v>7.4</v>
+        <v>7.723</v>
       </c>
       <c r="D18" t="n">
-        <v>7.4</v>
+        <v>7.724</v>
       </c>
       <c r="E18" t="n">
-        <v>7.35</v>
+        <v>7.723</v>
       </c>
       <c r="F18" t="n">
-        <v>58073.283</v>
+        <v>146992.3629</v>
       </c>
       <c r="G18" t="n">
-        <v>-5050948.056100001</v>
+        <v>-1839050.3696</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1050,22 +1050,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>7.35</v>
+        <v>7.723</v>
       </c>
       <c r="C19" t="n">
-        <v>7.35</v>
+        <v>7.723</v>
       </c>
       <c r="D19" t="n">
-        <v>7.35</v>
+        <v>7.723</v>
       </c>
       <c r="E19" t="n">
-        <v>7.35</v>
+        <v>7.723</v>
       </c>
       <c r="F19" t="n">
-        <v>15673.2205</v>
+        <v>23900</v>
       </c>
       <c r="G19" t="n">
-        <v>-5066621.2766</v>
+        <v>-1839050.3696</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1086,35 +1086,31 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>7.39</v>
+        <v>7.723</v>
       </c>
       <c r="C20" t="n">
-        <v>7.39</v>
+        <v>7.723</v>
       </c>
       <c r="D20" t="n">
-        <v>7.39</v>
+        <v>7.723</v>
       </c>
       <c r="E20" t="n">
-        <v>7.39</v>
+        <v>7.723</v>
       </c>
       <c r="F20" t="n">
-        <v>68</v>
+        <v>36.1085</v>
       </c>
       <c r="G20" t="n">
-        <v>-5066553.2766</v>
+        <v>-1839050.3696</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="K20" t="n">
-        <v>7.35</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
@@ -1126,40 +1122,32 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>7.39</v>
+        <v>7.51</v>
       </c>
       <c r="C21" t="n">
-        <v>7.435</v>
+        <v>7.5</v>
       </c>
       <c r="D21" t="n">
-        <v>7.435</v>
+        <v>7.51</v>
       </c>
       <c r="E21" t="n">
-        <v>7.39</v>
+        <v>7.5</v>
       </c>
       <c r="F21" t="n">
-        <v>82215.88069999999</v>
+        <v>82894.00840000001</v>
       </c>
       <c r="G21" t="n">
-        <v>-4984337.395900001</v>
+        <v>-1921944.378</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>7.39</v>
-      </c>
-      <c r="K21" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1170,40 +1158,32 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>7.35</v>
+        <v>7.51</v>
       </c>
       <c r="C22" t="n">
-        <v>7.35</v>
+        <v>7.5</v>
       </c>
       <c r="D22" t="n">
-        <v>7.35</v>
+        <v>7.51</v>
       </c>
       <c r="E22" t="n">
-        <v>7.35</v>
+        <v>7.5</v>
       </c>
       <c r="F22" t="n">
-        <v>69</v>
+        <v>100000</v>
       </c>
       <c r="G22" t="n">
-        <v>-4984406.395900001</v>
+        <v>-1921944.378</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>7.435</v>
-      </c>
-      <c r="K22" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1214,22 +1194,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>7.35</v>
+        <v>7.5</v>
       </c>
       <c r="C23" t="n">
-        <v>7.35</v>
+        <v>7.5</v>
       </c>
       <c r="D23" t="n">
-        <v>7.35</v>
+        <v>7.5</v>
       </c>
       <c r="E23" t="n">
-        <v>7.35</v>
+        <v>7.5</v>
       </c>
       <c r="F23" t="n">
-        <v>3402.8499</v>
+        <v>28214.9761</v>
       </c>
       <c r="G23" t="n">
-        <v>-4984406.395900001</v>
+        <v>-1921944.378</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1250,22 +1230,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>7.42</v>
+        <v>7.5</v>
       </c>
       <c r="C24" t="n">
-        <v>7.435</v>
+        <v>7.5</v>
       </c>
       <c r="D24" t="n">
-        <v>7.435</v>
+        <v>7.5</v>
       </c>
       <c r="E24" t="n">
-        <v>7.42</v>
+        <v>7.5</v>
       </c>
       <c r="F24" t="n">
-        <v>100000</v>
+        <v>46392.7187</v>
       </c>
       <c r="G24" t="n">
-        <v>-4884406.395900001</v>
+        <v>-1921944.378</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1286,22 +1266,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>7.35</v>
+        <v>7.5</v>
       </c>
       <c r="C25" t="n">
-        <v>7.34</v>
+        <v>7.5</v>
       </c>
       <c r="D25" t="n">
-        <v>7.35</v>
+        <v>7.5</v>
       </c>
       <c r="E25" t="n">
-        <v>7.34</v>
+        <v>7.5</v>
       </c>
       <c r="F25" t="n">
-        <v>139480.4606</v>
+        <v>50267.448</v>
       </c>
       <c r="G25" t="n">
-        <v>-5023886.856500001</v>
+        <v>-1921944.378</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1322,22 +1302,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>7.435</v>
+        <v>7.655</v>
       </c>
       <c r="C26" t="n">
-        <v>7.435</v>
+        <v>7.655</v>
       </c>
       <c r="D26" t="n">
-        <v>7.435</v>
+        <v>7.655</v>
       </c>
       <c r="E26" t="n">
-        <v>7.435</v>
+        <v>7.655</v>
       </c>
       <c r="F26" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G26" t="n">
-        <v>-5023818.856500001</v>
+        <v>-1921878.378</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1358,22 +1338,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>7.346</v>
+        <v>7.605</v>
       </c>
       <c r="C27" t="n">
-        <v>7.346</v>
+        <v>7.605</v>
       </c>
       <c r="D27" t="n">
-        <v>7.346</v>
+        <v>7.605</v>
       </c>
       <c r="E27" t="n">
-        <v>7.346</v>
+        <v>7.605</v>
       </c>
       <c r="F27" t="n">
-        <v>69</v>
+        <v>4065.0394</v>
       </c>
       <c r="G27" t="n">
-        <v>-5023887.856500001</v>
+        <v>-1925943.4174</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1394,22 +1374,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>7.346</v>
+        <v>7.599</v>
       </c>
       <c r="C28" t="n">
-        <v>7.345</v>
+        <v>7.5</v>
       </c>
       <c r="D28" t="n">
-        <v>7.346</v>
+        <v>7.599</v>
       </c>
       <c r="E28" t="n">
-        <v>7.345</v>
+        <v>7.5</v>
       </c>
       <c r="F28" t="n">
-        <v>146511.6962</v>
+        <v>161809.7452</v>
       </c>
       <c r="G28" t="n">
-        <v>-5170399.552700001</v>
+        <v>-2087753.1626</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1430,22 +1410,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>7.345</v>
+        <v>7.5</v>
       </c>
       <c r="C29" t="n">
-        <v>7.345</v>
+        <v>7.5</v>
       </c>
       <c r="D29" t="n">
-        <v>7.345</v>
+        <v>7.5</v>
       </c>
       <c r="E29" t="n">
-        <v>7.345</v>
+        <v>7.5</v>
       </c>
       <c r="F29" t="n">
-        <v>12509.5555</v>
+        <v>14416.0945</v>
       </c>
       <c r="G29" t="n">
-        <v>-5170399.552700001</v>
+        <v>-2087753.1626</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1466,22 +1446,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>7.435</v>
+        <v>7.5</v>
       </c>
       <c r="C30" t="n">
-        <v>7.435</v>
+        <v>7.432</v>
       </c>
       <c r="D30" t="n">
-        <v>7.435</v>
+        <v>7.5</v>
       </c>
       <c r="E30" t="n">
-        <v>7.435</v>
+        <v>7.432</v>
       </c>
       <c r="F30" t="n">
-        <v>1783.5993</v>
+        <v>601920.0722000001</v>
       </c>
       <c r="G30" t="n">
-        <v>-5168615.953400001</v>
+        <v>-2689673.2348</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1502,22 +1482,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>7.435</v>
+        <v>7.422</v>
       </c>
       <c r="C31" t="n">
-        <v>7.435</v>
+        <v>7.422</v>
       </c>
       <c r="D31" t="n">
-        <v>7.435</v>
+        <v>7.422</v>
       </c>
       <c r="E31" t="n">
-        <v>7.435</v>
+        <v>7.422</v>
       </c>
       <c r="F31" t="n">
-        <v>584.3131</v>
+        <v>87532.2895</v>
       </c>
       <c r="G31" t="n">
-        <v>-5168615.953400001</v>
+        <v>-2777205.5243</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1538,22 +1518,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>7.354</v>
+        <v>7.422</v>
       </c>
       <c r="C32" t="n">
-        <v>7.354</v>
+        <v>7.409</v>
       </c>
       <c r="D32" t="n">
-        <v>7.354</v>
+        <v>7.422</v>
       </c>
       <c r="E32" t="n">
-        <v>7.354</v>
+        <v>7.409</v>
       </c>
       <c r="F32" t="n">
-        <v>68</v>
+        <v>153405.2401</v>
       </c>
       <c r="G32" t="n">
-        <v>-5168683.953400001</v>
+        <v>-2930610.7644</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1574,22 +1554,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>7.37</v>
+        <v>7.409</v>
       </c>
       <c r="C33" t="n">
-        <v>7.37</v>
+        <v>7.4</v>
       </c>
       <c r="D33" t="n">
-        <v>7.37</v>
+        <v>7.409</v>
       </c>
       <c r="E33" t="n">
-        <v>7.37</v>
+        <v>7.4</v>
       </c>
       <c r="F33" t="n">
-        <v>26710.0149</v>
+        <v>1012078.9953</v>
       </c>
       <c r="G33" t="n">
-        <v>-5141973.938500001</v>
+        <v>-3942689.7597</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1610,22 +1590,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>7.37</v>
+        <v>7.4</v>
       </c>
       <c r="C34" t="n">
-        <v>7.37</v>
+        <v>7.4</v>
       </c>
       <c r="D34" t="n">
-        <v>7.37</v>
+        <v>7.4</v>
       </c>
       <c r="E34" t="n">
-        <v>7.37</v>
+        <v>7.4</v>
       </c>
       <c r="F34" t="n">
-        <v>49494.1748</v>
+        <v>96881.8147</v>
       </c>
       <c r="G34" t="n">
-        <v>-5141973.938500001</v>
+        <v>-3942689.7597</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1646,22 +1626,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>7.357</v>
+        <v>7.566</v>
       </c>
       <c r="C35" t="n">
-        <v>7.357</v>
+        <v>7.566</v>
       </c>
       <c r="D35" t="n">
-        <v>7.357</v>
+        <v>7.566</v>
       </c>
       <c r="E35" t="n">
-        <v>7.357</v>
+        <v>7.566</v>
       </c>
       <c r="F35" t="n">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G35" t="n">
-        <v>-5142042.938500001</v>
+        <v>-3942622.7597</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1682,22 +1662,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>7.359</v>
+        <v>7.566</v>
       </c>
       <c r="C36" t="n">
-        <v>7.359</v>
+        <v>7.566</v>
       </c>
       <c r="D36" t="n">
-        <v>7.359</v>
+        <v>7.566</v>
       </c>
       <c r="E36" t="n">
-        <v>7.359</v>
+        <v>7.566</v>
       </c>
       <c r="F36" t="n">
-        <v>16047.2635</v>
+        <v>67</v>
       </c>
       <c r="G36" t="n">
-        <v>-5125995.675000001</v>
+        <v>-3942622.7597</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1718,22 +1698,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>7.359</v>
+        <v>7.402</v>
       </c>
       <c r="C37" t="n">
-        <v>7.359</v>
+        <v>7.402</v>
       </c>
       <c r="D37" t="n">
-        <v>7.359</v>
+        <v>7.402</v>
       </c>
       <c r="E37" t="n">
-        <v>7.359</v>
+        <v>7.402</v>
       </c>
       <c r="F37" t="n">
-        <v>80592.4933</v>
+        <v>2853.6685</v>
       </c>
       <c r="G37" t="n">
-        <v>-5125995.675000001</v>
+        <v>-3945476.4282</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1754,22 +1734,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>7.47</v>
+        <v>7.402</v>
       </c>
       <c r="C38" t="n">
-        <v>7.77</v>
+        <v>7.518</v>
       </c>
       <c r="D38" t="n">
-        <v>7.77</v>
+        <v>7.518</v>
       </c>
       <c r="E38" t="n">
-        <v>7.47</v>
+        <v>7.402</v>
       </c>
       <c r="F38" t="n">
-        <v>600000</v>
+        <v>64363.8155</v>
       </c>
       <c r="G38" t="n">
-        <v>-4525995.675000001</v>
+        <v>-3881112.6127</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1790,22 +1770,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>7.481</v>
+        <v>7.401</v>
       </c>
       <c r="C39" t="n">
-        <v>7.47</v>
+        <v>7.401</v>
       </c>
       <c r="D39" t="n">
-        <v>7.481</v>
+        <v>7.401</v>
       </c>
       <c r="E39" t="n">
-        <v>7.47</v>
+        <v>7.401</v>
       </c>
       <c r="F39" t="n">
-        <v>69547.6728</v>
+        <v>202985.6817</v>
       </c>
       <c r="G39" t="n">
-        <v>-4595543.347800001</v>
+        <v>-4084098.2944</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1826,22 +1806,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>7.41</v>
+        <v>7.516</v>
       </c>
       <c r="C40" t="n">
-        <v>7.41</v>
+        <v>7.516</v>
       </c>
       <c r="D40" t="n">
-        <v>7.41</v>
+        <v>7.516</v>
       </c>
       <c r="E40" t="n">
-        <v>7.41</v>
+        <v>7.516</v>
       </c>
       <c r="F40" t="n">
-        <v>70.0998</v>
+        <v>67</v>
       </c>
       <c r="G40" t="n">
-        <v>-4595613.447600001</v>
+        <v>-4084031.2944</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1862,22 +1842,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>7.597</v>
+        <v>7.401</v>
       </c>
       <c r="C41" t="n">
-        <v>7.597</v>
+        <v>7.401</v>
       </c>
       <c r="D41" t="n">
-        <v>7.597</v>
+        <v>7.401</v>
       </c>
       <c r="E41" t="n">
-        <v>7.597</v>
+        <v>7.401</v>
       </c>
       <c r="F41" t="n">
-        <v>5983.9292</v>
+        <v>4205.5836</v>
       </c>
       <c r="G41" t="n">
-        <v>-4589629.5184</v>
+        <v>-4088236.878</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1898,22 +1878,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="C42" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="D42" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="E42" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="F42" t="n">
-        <v>24726.099</v>
+        <v>531000</v>
       </c>
       <c r="G42" t="n">
-        <v>-4614355.617400001</v>
+        <v>-4619236.878</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1934,22 +1914,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="C43" t="n">
-        <v>7.5</v>
+        <v>7.34</v>
       </c>
       <c r="D43" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="E43" t="n">
-        <v>7.5</v>
+        <v>7.34</v>
       </c>
       <c r="F43" t="n">
-        <v>20126.6882</v>
+        <v>372604.6218</v>
       </c>
       <c r="G43" t="n">
-        <v>-4614355.617400001</v>
+        <v>-4991841.4998</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1970,22 +1950,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>7.43</v>
+        <v>7.489</v>
       </c>
       <c r="C44" t="n">
-        <v>7.43</v>
+        <v>7.489</v>
       </c>
       <c r="D44" t="n">
-        <v>7.43</v>
+        <v>7.489</v>
       </c>
       <c r="E44" t="n">
-        <v>7.43</v>
+        <v>7.489</v>
       </c>
       <c r="F44" t="n">
-        <v>70.1122</v>
+        <v>67</v>
       </c>
       <c r="G44" t="n">
-        <v>-4614425.729600001</v>
+        <v>-4991774.4998</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2006,22 +1986,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>7.585</v>
+        <v>7.479</v>
       </c>
       <c r="C45" t="n">
-        <v>7.585</v>
+        <v>7.48</v>
       </c>
       <c r="D45" t="n">
-        <v>7.585</v>
+        <v>7.48</v>
       </c>
       <c r="E45" t="n">
-        <v>7.585</v>
+        <v>7.479</v>
       </c>
       <c r="F45" t="n">
-        <v>66</v>
+        <v>100000</v>
       </c>
       <c r="G45" t="n">
-        <v>-4614359.729600001</v>
+        <v>-5091774.4998</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2042,22 +2022,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>7.585</v>
+        <v>7.35</v>
       </c>
       <c r="C46" t="n">
-        <v>7.585</v>
+        <v>7.35</v>
       </c>
       <c r="D46" t="n">
-        <v>7.585</v>
+        <v>7.35</v>
       </c>
       <c r="E46" t="n">
-        <v>7.585</v>
+        <v>7.35</v>
       </c>
       <c r="F46" t="n">
-        <v>9665.382600000001</v>
+        <v>17246.8393</v>
       </c>
       <c r="G46" t="n">
-        <v>-4614359.729600001</v>
+        <v>-5109021.3391</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2078,22 +2058,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>7.585</v>
+        <v>7.35</v>
       </c>
       <c r="C47" t="n">
-        <v>7.585</v>
+        <v>7.4</v>
       </c>
       <c r="D47" t="n">
-        <v>7.585</v>
+        <v>7.4</v>
       </c>
       <c r="E47" t="n">
-        <v>7.585</v>
+        <v>7.35</v>
       </c>
       <c r="F47" t="n">
-        <v>3731.3594</v>
+        <v>58073.283</v>
       </c>
       <c r="G47" t="n">
-        <v>-4614359.729600001</v>
+        <v>-5050948.056100001</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2114,22 +2094,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>7.585</v>
+        <v>7.35</v>
       </c>
       <c r="C48" t="n">
-        <v>7.585</v>
+        <v>7.35</v>
       </c>
       <c r="D48" t="n">
-        <v>7.585</v>
+        <v>7.35</v>
       </c>
       <c r="E48" t="n">
-        <v>7.585</v>
+        <v>7.35</v>
       </c>
       <c r="F48" t="n">
-        <v>4967.485</v>
+        <v>15673.2205</v>
       </c>
       <c r="G48" t="n">
-        <v>-4614359.729600001</v>
+        <v>-5066621.2766</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2150,22 +2130,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>7.45</v>
+        <v>7.39</v>
       </c>
       <c r="C49" t="n">
-        <v>7.45</v>
+        <v>7.39</v>
       </c>
       <c r="D49" t="n">
-        <v>7.45</v>
+        <v>7.39</v>
       </c>
       <c r="E49" t="n">
-        <v>7.45</v>
+        <v>7.39</v>
       </c>
       <c r="F49" t="n">
-        <v>892.5873</v>
+        <v>68</v>
       </c>
       <c r="G49" t="n">
-        <v>-4615252.316900001</v>
+        <v>-5066553.2766</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2186,22 +2166,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>7.585</v>
+        <v>7.39</v>
       </c>
       <c r="C50" t="n">
-        <v>7.585</v>
+        <v>7.435</v>
       </c>
       <c r="D50" t="n">
-        <v>7.585</v>
+        <v>7.435</v>
       </c>
       <c r="E50" t="n">
-        <v>7.585</v>
+        <v>7.39</v>
       </c>
       <c r="F50" t="n">
-        <v>66</v>
+        <v>82215.88069999999</v>
       </c>
       <c r="G50" t="n">
-        <v>-4615186.316900001</v>
+        <v>-4984337.395900001</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2222,22 +2202,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>7.585</v>
+        <v>7.35</v>
       </c>
       <c r="C51" t="n">
-        <v>7.659</v>
+        <v>7.35</v>
       </c>
       <c r="D51" t="n">
-        <v>7.659</v>
+        <v>7.35</v>
       </c>
       <c r="E51" t="n">
-        <v>7.585</v>
+        <v>7.35</v>
       </c>
       <c r="F51" t="n">
-        <v>25850</v>
+        <v>69</v>
       </c>
       <c r="G51" t="n">
-        <v>-4589336.316900001</v>
+        <v>-4984406.395900001</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2258,22 +2238,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>7.759</v>
+        <v>7.35</v>
       </c>
       <c r="C52" t="n">
-        <v>7.759</v>
+        <v>7.35</v>
       </c>
       <c r="D52" t="n">
-        <v>7.759</v>
+        <v>7.35</v>
       </c>
       <c r="E52" t="n">
-        <v>7.759</v>
+        <v>7.35</v>
       </c>
       <c r="F52" t="n">
-        <v>1000</v>
+        <v>3402.8499</v>
       </c>
       <c r="G52" t="n">
-        <v>-4588336.316900001</v>
+        <v>-4984406.395900001</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2294,22 +2274,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>7.759</v>
+        <v>7.42</v>
       </c>
       <c r="C53" t="n">
-        <v>7.77</v>
+        <v>7.435</v>
       </c>
       <c r="D53" t="n">
-        <v>7.77</v>
+        <v>7.435</v>
       </c>
       <c r="E53" t="n">
-        <v>7.759</v>
+        <v>7.42</v>
       </c>
       <c r="F53" t="n">
-        <v>387130.2697</v>
+        <v>100000</v>
       </c>
       <c r="G53" t="n">
-        <v>-4201206.047200001</v>
+        <v>-4884406.395900001</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2330,22 +2310,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>7.87</v>
+        <v>7.35</v>
       </c>
       <c r="C54" t="n">
-        <v>7.87</v>
+        <v>7.34</v>
       </c>
       <c r="D54" t="n">
-        <v>7.87</v>
+        <v>7.35</v>
       </c>
       <c r="E54" t="n">
-        <v>7.87</v>
+        <v>7.34</v>
       </c>
       <c r="F54" t="n">
-        <v>1310</v>
+        <v>139480.4606</v>
       </c>
       <c r="G54" t="n">
-        <v>-4199896.047200001</v>
+        <v>-5023886.856500001</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2366,22 +2346,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>7.71</v>
+        <v>7.435</v>
       </c>
       <c r="C55" t="n">
-        <v>7.71</v>
+        <v>7.435</v>
       </c>
       <c r="D55" t="n">
-        <v>7.71</v>
+        <v>7.435</v>
       </c>
       <c r="E55" t="n">
-        <v>7.71</v>
+        <v>7.435</v>
       </c>
       <c r="F55" t="n">
-        <v>1297.3533</v>
+        <v>68</v>
       </c>
       <c r="G55" t="n">
-        <v>-4201193.4005</v>
+        <v>-5023818.856500001</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2402,22 +2382,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>7.902</v>
+        <v>7.346</v>
       </c>
       <c r="C56" t="n">
-        <v>7.902</v>
+        <v>7.346</v>
       </c>
       <c r="D56" t="n">
-        <v>7.902</v>
+        <v>7.346</v>
       </c>
       <c r="E56" t="n">
-        <v>7.902</v>
+        <v>7.346</v>
       </c>
       <c r="F56" t="n">
-        <v>3093.4849</v>
+        <v>69</v>
       </c>
       <c r="G56" t="n">
-        <v>-4198099.915600001</v>
+        <v>-5023887.856500001</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2438,22 +2418,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>7.98</v>
+        <v>7.346</v>
       </c>
       <c r="C57" t="n">
-        <v>7.98</v>
+        <v>7.345</v>
       </c>
       <c r="D57" t="n">
-        <v>7.98</v>
+        <v>7.346</v>
       </c>
       <c r="E57" t="n">
-        <v>7.98</v>
+        <v>7.345</v>
       </c>
       <c r="F57" t="n">
-        <v>102.0098</v>
+        <v>146511.6962</v>
       </c>
       <c r="G57" t="n">
-        <v>-4197997.905800001</v>
+        <v>-5170399.552700001</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2474,22 +2454,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>7.98</v>
+        <v>7.345</v>
       </c>
       <c r="C58" t="n">
-        <v>8.140000000000001</v>
+        <v>7.345</v>
       </c>
       <c r="D58" t="n">
-        <v>8.140000000000001</v>
+        <v>7.345</v>
       </c>
       <c r="E58" t="n">
-        <v>7.98</v>
+        <v>7.345</v>
       </c>
       <c r="F58" t="n">
-        <v>548353.5011</v>
+        <v>12509.5555</v>
       </c>
       <c r="G58" t="n">
-        <v>-3649644.404700001</v>
+        <v>-5170399.552700001</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2510,22 +2490,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>8.140000000000001</v>
+        <v>7.435</v>
       </c>
       <c r="C59" t="n">
-        <v>8.140000000000001</v>
+        <v>7.435</v>
       </c>
       <c r="D59" t="n">
-        <v>8.140000000000001</v>
+        <v>7.435</v>
       </c>
       <c r="E59" t="n">
-        <v>8.140000000000001</v>
+        <v>7.435</v>
       </c>
       <c r="F59" t="n">
-        <v>52457.00245700245</v>
+        <v>1783.5993</v>
       </c>
       <c r="G59" t="n">
-        <v>-3649644.404700001</v>
+        <v>-5168615.953400001</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2546,22 +2526,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>8.140000000000001</v>
+        <v>7.435</v>
       </c>
       <c r="C60" t="n">
-        <v>8.140000000000001</v>
+        <v>7.435</v>
       </c>
       <c r="D60" t="n">
-        <v>8.140000000000001</v>
+        <v>7.435</v>
       </c>
       <c r="E60" t="n">
-        <v>8.140000000000001</v>
+        <v>7.435</v>
       </c>
       <c r="F60" t="n">
-        <v>100072.1009</v>
+        <v>584.3131</v>
       </c>
       <c r="G60" t="n">
-        <v>-3649644.404700001</v>
+        <v>-5168615.953400001</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2582,22 +2562,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>8.140000000000001</v>
+        <v>7.354</v>
       </c>
       <c r="C61" t="n">
-        <v>8.140000000000001</v>
+        <v>7.354</v>
       </c>
       <c r="D61" t="n">
-        <v>8.140000000000001</v>
+        <v>7.354</v>
       </c>
       <c r="E61" t="n">
-        <v>8.140000000000001</v>
+        <v>7.354</v>
       </c>
       <c r="F61" t="n">
-        <v>100.2126</v>
+        <v>68</v>
       </c>
       <c r="G61" t="n">
-        <v>-3649644.404700001</v>
+        <v>-5168683.953400001</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2618,22 +2598,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>8.140000000000001</v>
+        <v>7.37</v>
       </c>
       <c r="C62" t="n">
-        <v>8.227</v>
+        <v>7.37</v>
       </c>
       <c r="D62" t="n">
-        <v>8.227</v>
+        <v>7.37</v>
       </c>
       <c r="E62" t="n">
-        <v>8.140000000000001</v>
+        <v>7.37</v>
       </c>
       <c r="F62" t="n">
-        <v>5467.257642997543</v>
+        <v>26710.0149</v>
       </c>
       <c r="G62" t="n">
-        <v>-3644177.147057003</v>
+        <v>-5141973.938500001</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2654,22 +2634,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>8.225</v>
+        <v>7.37</v>
       </c>
       <c r="C63" t="n">
-        <v>8.225</v>
+        <v>7.37</v>
       </c>
       <c r="D63" t="n">
-        <v>8.225</v>
+        <v>7.37</v>
       </c>
       <c r="E63" t="n">
-        <v>8.225</v>
+        <v>7.37</v>
       </c>
       <c r="F63" t="n">
-        <v>100.299</v>
+        <v>49494.1748</v>
       </c>
       <c r="G63" t="n">
-        <v>-3644277.446057003</v>
+        <v>-5141973.938500001</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2690,22 +2670,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>8.224</v>
+        <v>7.357</v>
       </c>
       <c r="C64" t="n">
-        <v>7.6</v>
+        <v>7.357</v>
       </c>
       <c r="D64" t="n">
-        <v>8.224</v>
+        <v>7.357</v>
       </c>
       <c r="E64" t="n">
-        <v>7.6</v>
+        <v>7.357</v>
       </c>
       <c r="F64" t="n">
-        <v>103200</v>
+        <v>69</v>
       </c>
       <c r="G64" t="n">
-        <v>-3747477.446057003</v>
+        <v>-5142042.938500001</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2726,31 +2706,35 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>8.205</v>
+        <v>7.359</v>
       </c>
       <c r="C65" t="n">
-        <v>8.15</v>
+        <v>7.359</v>
       </c>
       <c r="D65" t="n">
-        <v>8.205</v>
+        <v>7.359</v>
       </c>
       <c r="E65" t="n">
-        <v>8.15</v>
+        <v>7.359</v>
       </c>
       <c r="F65" t="n">
-        <v>1621.3332</v>
+        <v>16047.2635</v>
       </c>
       <c r="G65" t="n">
-        <v>-3745856.112857003</v>
+        <v>-5125995.675000001</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>7.357</v>
+      </c>
+      <c r="K65" t="n">
+        <v>7.357</v>
+      </c>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
@@ -2762,32 +2746,40 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>7.96</v>
+        <v>7.359</v>
       </c>
       <c r="C66" t="n">
-        <v>8.140000000000001</v>
+        <v>7.359</v>
       </c>
       <c r="D66" t="n">
-        <v>8.140000000000001</v>
+        <v>7.359</v>
       </c>
       <c r="E66" t="n">
-        <v>7.96</v>
+        <v>7.359</v>
       </c>
       <c r="F66" t="n">
-        <v>1300</v>
+        <v>80592.4933</v>
       </c>
       <c r="G66" t="n">
-        <v>-3747156.112857003</v>
+        <v>-5125995.675000001</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>7.359</v>
+      </c>
+      <c r="K66" t="n">
+        <v>7.357</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2798,32 +2790,40 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>8.140000000000001</v>
+        <v>7.47</v>
       </c>
       <c r="C67" t="n">
-        <v>8.140000000000001</v>
+        <v>7.77</v>
       </c>
       <c r="D67" t="n">
-        <v>8.140000000000001</v>
+        <v>7.77</v>
       </c>
       <c r="E67" t="n">
-        <v>8.140000000000001</v>
+        <v>7.47</v>
       </c>
       <c r="F67" t="n">
-        <v>100.2999</v>
+        <v>600000</v>
       </c>
       <c r="G67" t="n">
-        <v>-3747156.112857003</v>
+        <v>-4525995.675000001</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>7.359</v>
+      </c>
+      <c r="K67" t="n">
+        <v>7.357</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2834,22 +2834,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>7.95</v>
+        <v>7.481</v>
       </c>
       <c r="C68" t="n">
-        <v>7.745</v>
+        <v>7.47</v>
       </c>
       <c r="D68" t="n">
-        <v>7.95</v>
+        <v>7.481</v>
       </c>
       <c r="E68" t="n">
-        <v>7.745</v>
+        <v>7.47</v>
       </c>
       <c r="F68" t="n">
-        <v>30174.4327</v>
+        <v>69547.6728</v>
       </c>
       <c r="G68" t="n">
-        <v>-3777330.545557003</v>
+        <v>-4595543.347800001</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2870,31 +2870,35 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>7.75</v>
+        <v>7.41</v>
       </c>
       <c r="C69" t="n">
-        <v>8.138</v>
+        <v>7.41</v>
       </c>
       <c r="D69" t="n">
-        <v>8.138</v>
+        <v>7.41</v>
       </c>
       <c r="E69" t="n">
-        <v>7.75</v>
+        <v>7.41</v>
       </c>
       <c r="F69" t="n">
-        <v>28758.0611</v>
+        <v>70.0998</v>
       </c>
       <c r="G69" t="n">
-        <v>-3748572.484457003</v>
+        <v>-4595613.447600001</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>7.47</v>
+      </c>
+      <c r="K69" t="n">
+        <v>7.47</v>
+      </c>
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
@@ -2906,32 +2910,40 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>8.129</v>
+        <v>7.597</v>
       </c>
       <c r="C70" t="n">
-        <v>8.129</v>
+        <v>7.597</v>
       </c>
       <c r="D70" t="n">
-        <v>8.129</v>
+        <v>7.597</v>
       </c>
       <c r="E70" t="n">
-        <v>8.129</v>
+        <v>7.597</v>
       </c>
       <c r="F70" t="n">
-        <v>62</v>
+        <v>5983.9292</v>
       </c>
       <c r="G70" t="n">
-        <v>-3748634.484457003</v>
+        <v>-4589629.5184</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="K70" t="n">
+        <v>7.47</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2942,32 +2954,40 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>8.109</v>
+        <v>7.5</v>
       </c>
       <c r="C71" t="n">
-        <v>8.109</v>
+        <v>7.5</v>
       </c>
       <c r="D71" t="n">
-        <v>8.109</v>
+        <v>7.5</v>
       </c>
       <c r="E71" t="n">
-        <v>8.109</v>
+        <v>7.5</v>
       </c>
       <c r="F71" t="n">
-        <v>63</v>
+        <v>24726.099</v>
       </c>
       <c r="G71" t="n">
-        <v>-3748697.484457003</v>
+        <v>-4614355.617400001</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>7.597</v>
+      </c>
+      <c r="K71" t="n">
+        <v>7.47</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2978,22 +2998,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>7.78</v>
+        <v>7.5</v>
       </c>
       <c r="C72" t="n">
-        <v>8.098000000000001</v>
+        <v>7.5</v>
       </c>
       <c r="D72" t="n">
-        <v>8.098000000000001</v>
+        <v>7.5</v>
       </c>
       <c r="E72" t="n">
-        <v>7.78</v>
+        <v>7.5</v>
       </c>
       <c r="F72" t="n">
-        <v>2557.5022</v>
+        <v>20126.6882</v>
       </c>
       <c r="G72" t="n">
-        <v>-3751254.986657003</v>
+        <v>-4614355.617400001</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3014,31 +3034,35 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>7.772</v>
+        <v>7.43</v>
       </c>
       <c r="C73" t="n">
-        <v>7.772</v>
+        <v>7.43</v>
       </c>
       <c r="D73" t="n">
-        <v>7.772</v>
+        <v>7.43</v>
       </c>
       <c r="E73" t="n">
-        <v>7.772</v>
+        <v>7.43</v>
       </c>
       <c r="F73" t="n">
-        <v>15383.0407</v>
+        <v>70.1122</v>
       </c>
       <c r="G73" t="n">
-        <v>-3766638.027357003</v>
+        <v>-4614425.729600001</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K73" t="n">
+        <v>7.5</v>
+      </c>
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
@@ -3050,22 +3074,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>7.78</v>
+        <v>7.585</v>
       </c>
       <c r="C74" t="n">
-        <v>7.745</v>
+        <v>7.585</v>
       </c>
       <c r="D74" t="n">
-        <v>7.78</v>
+        <v>7.585</v>
       </c>
       <c r="E74" t="n">
-        <v>7.745</v>
+        <v>7.585</v>
       </c>
       <c r="F74" t="n">
-        <v>150000</v>
+        <v>66</v>
       </c>
       <c r="G74" t="n">
-        <v>-3916638.027357003</v>
+        <v>-4614359.729600001</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3074,8 +3098,14 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3086,32 +3116,40 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>7.71</v>
+        <v>7.585</v>
       </c>
       <c r="C75" t="n">
-        <v>7.71</v>
+        <v>7.585</v>
       </c>
       <c r="D75" t="n">
-        <v>7.71</v>
+        <v>7.585</v>
       </c>
       <c r="E75" t="n">
-        <v>7.71</v>
+        <v>7.585</v>
       </c>
       <c r="F75" t="n">
-        <v>1297.3533</v>
+        <v>9665.382600000001</v>
       </c>
       <c r="G75" t="n">
-        <v>-3917935.380657003</v>
+        <v>-4614359.729600001</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>7.585</v>
+      </c>
+      <c r="K75" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3122,22 +3160,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>7.779</v>
+        <v>7.585</v>
       </c>
       <c r="C76" t="n">
-        <v>7.779</v>
+        <v>7.585</v>
       </c>
       <c r="D76" t="n">
-        <v>7.779</v>
+        <v>7.585</v>
       </c>
       <c r="E76" t="n">
-        <v>7.779</v>
+        <v>7.585</v>
       </c>
       <c r="F76" t="n">
-        <v>65</v>
+        <v>3731.3594</v>
       </c>
       <c r="G76" t="n">
-        <v>-3917870.380657003</v>
+        <v>-4614359.729600001</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3158,31 +3196,35 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>7.607</v>
+        <v>7.585</v>
       </c>
       <c r="C77" t="n">
-        <v>7.6</v>
+        <v>7.585</v>
       </c>
       <c r="D77" t="n">
-        <v>7.607</v>
+        <v>7.585</v>
       </c>
       <c r="E77" t="n">
-        <v>7.6</v>
+        <v>7.585</v>
       </c>
       <c r="F77" t="n">
-        <v>324410.467</v>
+        <v>4967.485</v>
       </c>
       <c r="G77" t="n">
-        <v>-4242280.847657003</v>
+        <v>-4614359.729600001</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>7.585</v>
+      </c>
+      <c r="K77" t="n">
+        <v>7.585</v>
+      </c>
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
@@ -3194,22 +3236,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>7.776</v>
+        <v>7.45</v>
       </c>
       <c r="C78" t="n">
-        <v>7.776</v>
+        <v>7.45</v>
       </c>
       <c r="D78" t="n">
-        <v>7.776</v>
+        <v>7.45</v>
       </c>
       <c r="E78" t="n">
-        <v>7.776</v>
+        <v>7.45</v>
       </c>
       <c r="F78" t="n">
-        <v>1500</v>
+        <v>892.5873</v>
       </c>
       <c r="G78" t="n">
-        <v>-4240780.847657003</v>
+        <v>-4615252.316900001</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3218,8 +3260,14 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>7.585</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3230,32 +3278,40 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>7.776</v>
+        <v>7.585</v>
       </c>
       <c r="C79" t="n">
-        <v>7.786</v>
+        <v>7.585</v>
       </c>
       <c r="D79" t="n">
-        <v>7.786</v>
+        <v>7.585</v>
       </c>
       <c r="E79" t="n">
-        <v>7.776</v>
+        <v>7.585</v>
       </c>
       <c r="F79" t="n">
-        <v>64452.5849</v>
+        <v>66</v>
       </c>
       <c r="G79" t="n">
-        <v>-4176328.262757002</v>
+        <v>-4615186.316900001</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>7.45</v>
+      </c>
+      <c r="K79" t="n">
+        <v>7.585</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3266,22 +3322,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>7.787</v>
+        <v>7.585</v>
       </c>
       <c r="C80" t="n">
-        <v>8.09</v>
+        <v>7.659</v>
       </c>
       <c r="D80" t="n">
-        <v>8.09</v>
+        <v>7.659</v>
       </c>
       <c r="E80" t="n">
-        <v>7.787</v>
+        <v>7.585</v>
       </c>
       <c r="F80" t="n">
-        <v>25707.715</v>
+        <v>25850</v>
       </c>
       <c r="G80" t="n">
-        <v>-4150620.547757003</v>
+        <v>-4589336.316900001</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3302,22 +3358,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>7.96</v>
+        <v>7.759</v>
       </c>
       <c r="C81" t="n">
-        <v>7.96</v>
+        <v>7.759</v>
       </c>
       <c r="D81" t="n">
-        <v>7.96</v>
+        <v>7.759</v>
       </c>
       <c r="E81" t="n">
-        <v>7.96</v>
+        <v>7.759</v>
       </c>
       <c r="F81" t="n">
-        <v>3197.3406</v>
+        <v>1000</v>
       </c>
       <c r="G81" t="n">
-        <v>-4153817.888357003</v>
+        <v>-4588336.316900001</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3338,22 +3394,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>7.959</v>
+        <v>7.759</v>
       </c>
       <c r="C82" t="n">
-        <v>7.96</v>
+        <v>7.77</v>
       </c>
       <c r="D82" t="n">
-        <v>7.96</v>
+        <v>7.77</v>
       </c>
       <c r="E82" t="n">
-        <v>7.959</v>
+        <v>7.759</v>
       </c>
       <c r="F82" t="n">
-        <v>12000</v>
+        <v>387130.2697</v>
       </c>
       <c r="G82" t="n">
-        <v>-4153817.888357003</v>
+        <v>-4201206.047200001</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3374,22 +3430,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>7.959</v>
+        <v>7.87</v>
       </c>
       <c r="C83" t="n">
-        <v>7.959</v>
+        <v>7.87</v>
       </c>
       <c r="D83" t="n">
-        <v>7.959</v>
+        <v>7.87</v>
       </c>
       <c r="E83" t="n">
-        <v>7.959</v>
+        <v>7.87</v>
       </c>
       <c r="F83" t="n">
-        <v>200.0251287850232</v>
+        <v>1310</v>
       </c>
       <c r="G83" t="n">
-        <v>-4154017.913485788</v>
+        <v>-4199896.047200001</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3410,22 +3466,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>7.661</v>
+        <v>7.71</v>
       </c>
       <c r="C84" t="n">
-        <v>7.661</v>
+        <v>7.71</v>
       </c>
       <c r="D84" t="n">
-        <v>7.661</v>
+        <v>7.71</v>
       </c>
       <c r="E84" t="n">
-        <v>7.661</v>
+        <v>7.71</v>
       </c>
       <c r="F84" t="n">
-        <v>10566.9094</v>
+        <v>1297.3533</v>
       </c>
       <c r="G84" t="n">
-        <v>-4164584.822885788</v>
+        <v>-4201193.4005</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3446,22 +3502,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>7.958</v>
+        <v>7.902</v>
       </c>
       <c r="C85" t="n">
-        <v>7.958</v>
+        <v>7.902</v>
       </c>
       <c r="D85" t="n">
-        <v>7.958</v>
+        <v>7.902</v>
       </c>
       <c r="E85" t="n">
-        <v>7.958</v>
+        <v>7.902</v>
       </c>
       <c r="F85" t="n">
-        <v>63</v>
+        <v>3093.4849</v>
       </c>
       <c r="G85" t="n">
-        <v>-4164521.822885788</v>
+        <v>-4198099.915600001</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3482,22 +3538,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>7.897</v>
+        <v>7.98</v>
       </c>
       <c r="C86" t="n">
-        <v>7.897</v>
+        <v>7.98</v>
       </c>
       <c r="D86" t="n">
-        <v>7.897</v>
+        <v>7.98</v>
       </c>
       <c r="E86" t="n">
-        <v>7.897</v>
+        <v>7.98</v>
       </c>
       <c r="F86" t="n">
-        <v>42044.4065</v>
+        <v>102.0098</v>
       </c>
       <c r="G86" t="n">
-        <v>-4206566.229385788</v>
+        <v>-4197997.905800001</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3518,22 +3574,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>7.897</v>
+        <v>7.98</v>
       </c>
       <c r="C87" t="n">
-        <v>7.897</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="D87" t="n">
-        <v>7.897</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="E87" t="n">
-        <v>7.897</v>
+        <v>7.98</v>
       </c>
       <c r="F87" t="n">
-        <v>5000</v>
+        <v>548353.5011</v>
       </c>
       <c r="G87" t="n">
-        <v>-4206566.229385788</v>
+        <v>-3649644.404700001</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3554,22 +3610,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>7.897</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="C88" t="n">
-        <v>7.897</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="D88" t="n">
-        <v>7.897</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="E88" t="n">
-        <v>7.897</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="F88" t="n">
-        <v>2500</v>
+        <v>52457.00245700245</v>
       </c>
       <c r="G88" t="n">
-        <v>-4206566.229385788</v>
+        <v>-3649644.404700001</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3590,22 +3646,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>7.898</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="C89" t="n">
-        <v>7.94</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="D89" t="n">
-        <v>7.94</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="E89" t="n">
-        <v>7.898</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="F89" t="n">
-        <v>3012.022946246851</v>
+        <v>100072.1009</v>
       </c>
       <c r="G89" t="n">
-        <v>-4203554.206439541</v>
+        <v>-3649644.404700001</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3626,22 +3682,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>7.897</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="C90" t="n">
-        <v>7.939</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="D90" t="n">
-        <v>7.939</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="E90" t="n">
-        <v>7.603</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="F90" t="n">
-        <v>181579.464</v>
+        <v>100.2126</v>
       </c>
       <c r="G90" t="n">
-        <v>-4385133.67043954</v>
+        <v>-3649644.404700001</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3662,22 +3718,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>7.94</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="C91" t="n">
-        <v>7.94</v>
+        <v>8.227</v>
       </c>
       <c r="D91" t="n">
-        <v>7.94</v>
+        <v>8.227</v>
       </c>
       <c r="E91" t="n">
-        <v>7.94</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="F91" t="n">
-        <v>100.2134</v>
+        <v>5467.257642997543</v>
       </c>
       <c r="G91" t="n">
-        <v>-4385033.457039541</v>
+        <v>-3644177.147057003</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3698,28 +3754,28 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>7.939</v>
+        <v>8.225</v>
       </c>
       <c r="C92" t="n">
-        <v>7.939</v>
+        <v>8.225</v>
       </c>
       <c r="D92" t="n">
-        <v>7.939</v>
+        <v>8.225</v>
       </c>
       <c r="E92" t="n">
-        <v>7.939</v>
+        <v>8.225</v>
       </c>
       <c r="F92" t="n">
-        <v>20154.4502</v>
+        <v>100.299</v>
       </c>
       <c r="G92" t="n">
-        <v>-4405187.90723954</v>
+        <v>-3644277.446057003</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
@@ -3734,28 +3790,28 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>7.927</v>
+        <v>8.224</v>
       </c>
       <c r="C93" t="n">
-        <v>7.939</v>
+        <v>7.6</v>
       </c>
       <c r="D93" t="n">
-        <v>7.939</v>
+        <v>8.224</v>
       </c>
       <c r="E93" t="n">
-        <v>7.927</v>
+        <v>7.6</v>
       </c>
       <c r="F93" t="n">
-        <v>31622.0583</v>
+        <v>103200</v>
       </c>
       <c r="G93" t="n">
-        <v>-4405187.90723954</v>
+        <v>-3747477.446057003</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
@@ -3770,28 +3826,28 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>7.939</v>
+        <v>8.205</v>
       </c>
       <c r="C94" t="n">
-        <v>7.956</v>
+        <v>8.15</v>
       </c>
       <c r="D94" t="n">
-        <v>7.956</v>
+        <v>8.205</v>
       </c>
       <c r="E94" t="n">
-        <v>7.939</v>
+        <v>8.15</v>
       </c>
       <c r="F94" t="n">
-        <v>89963.32635375315</v>
+        <v>1621.3332</v>
       </c>
       <c r="G94" t="n">
-        <v>-4315224.580885787</v>
+        <v>-3745856.112857003</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
@@ -3806,28 +3862,28 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>8.022</v>
+        <v>7.96</v>
       </c>
       <c r="C95" t="n">
-        <v>8.022</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="D95" t="n">
-        <v>8.022</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="E95" t="n">
-        <v>8.022</v>
+        <v>7.96</v>
       </c>
       <c r="F95" t="n">
-        <v>63</v>
+        <v>1300</v>
       </c>
       <c r="G95" t="n">
-        <v>-4315161.580885787</v>
+        <v>-3747156.112857003</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
@@ -3842,28 +3898,28 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>7.856</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="C96" t="n">
-        <v>7.856</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="D96" t="n">
-        <v>7.856</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="E96" t="n">
-        <v>7.856</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="F96" t="n">
-        <v>3375.4274</v>
+        <v>100.2999</v>
       </c>
       <c r="G96" t="n">
-        <v>-4318537.008285788</v>
+        <v>-3747156.112857003</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
@@ -3878,28 +3934,28 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>7.856</v>
+        <v>7.95</v>
       </c>
       <c r="C97" t="n">
-        <v>7.856</v>
+        <v>7.745</v>
       </c>
       <c r="D97" t="n">
-        <v>7.856</v>
+        <v>7.95</v>
       </c>
       <c r="E97" t="n">
-        <v>7.856</v>
+        <v>7.745</v>
       </c>
       <c r="F97" t="n">
-        <v>4830.9165</v>
+        <v>30174.4327</v>
       </c>
       <c r="G97" t="n">
-        <v>-4318537.008285788</v>
+        <v>-3777330.545557003</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
@@ -3914,28 +3970,28 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>8</v>
+        <v>7.75</v>
       </c>
       <c r="C98" t="n">
-        <v>8</v>
+        <v>8.138</v>
       </c>
       <c r="D98" t="n">
-        <v>8</v>
+        <v>8.138</v>
       </c>
       <c r="E98" t="n">
-        <v>8</v>
+        <v>7.75</v>
       </c>
       <c r="F98" t="n">
-        <v>63</v>
+        <v>28758.0611</v>
       </c>
       <c r="G98" t="n">
-        <v>-4318474.008285788</v>
+        <v>-3748572.484457003</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
@@ -3950,28 +4006,28 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>7.95</v>
+        <v>8.129</v>
       </c>
       <c r="C99" t="n">
-        <v>7.95</v>
+        <v>8.129</v>
       </c>
       <c r="D99" t="n">
-        <v>7.96</v>
+        <v>8.129</v>
       </c>
       <c r="E99" t="n">
-        <v>7.95</v>
+        <v>8.129</v>
       </c>
       <c r="F99" t="n">
-        <v>135519.77</v>
+        <v>62</v>
       </c>
       <c r="G99" t="n">
-        <v>-4453993.778285787</v>
+        <v>-3748634.484457003</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
@@ -3986,28 +4042,28 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>7.95</v>
+        <v>8.109</v>
       </c>
       <c r="C100" t="n">
-        <v>7.95</v>
+        <v>8.109</v>
       </c>
       <c r="D100" t="n">
-        <v>7.95</v>
+        <v>8.109</v>
       </c>
       <c r="E100" t="n">
-        <v>7.95</v>
+        <v>8.109</v>
       </c>
       <c r="F100" t="n">
-        <v>8270.696</v>
+        <v>63</v>
       </c>
       <c r="G100" t="n">
-        <v>-4453993.778285787</v>
+        <v>-3748697.484457003</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
@@ -4022,28 +4078,28 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>7.854</v>
+        <v>7.78</v>
       </c>
       <c r="C101" t="n">
-        <v>7.621</v>
+        <v>8.098000000000001</v>
       </c>
       <c r="D101" t="n">
-        <v>7.854</v>
+        <v>8.098000000000001</v>
       </c>
       <c r="E101" t="n">
-        <v>7.621</v>
+        <v>7.78</v>
       </c>
       <c r="F101" t="n">
-        <v>126479.3012</v>
+        <v>2557.5022</v>
       </c>
       <c r="G101" t="n">
-        <v>-4580473.079485787</v>
+        <v>-3751254.986657003</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
@@ -4058,28 +4114,28 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>7.76</v>
+        <v>7.772</v>
       </c>
       <c r="C102" t="n">
-        <v>7.76</v>
+        <v>7.772</v>
       </c>
       <c r="D102" t="n">
-        <v>7.76</v>
+        <v>7.772</v>
       </c>
       <c r="E102" t="n">
-        <v>7.76</v>
+        <v>7.772</v>
       </c>
       <c r="F102" t="n">
-        <v>65</v>
+        <v>15383.0407</v>
       </c>
       <c r="G102" t="n">
-        <v>-4580408.079485787</v>
+        <v>-3766638.027357003</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
@@ -4094,28 +4150,28 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>7.632</v>
+        <v>7.78</v>
       </c>
       <c r="C103" t="n">
-        <v>7.614</v>
+        <v>7.745</v>
       </c>
       <c r="D103" t="n">
-        <v>7.632</v>
+        <v>7.78</v>
       </c>
       <c r="E103" t="n">
-        <v>7.614</v>
+        <v>7.745</v>
       </c>
       <c r="F103" t="n">
-        <v>51213.4739</v>
+        <v>150000</v>
       </c>
       <c r="G103" t="n">
-        <v>-4631621.553385787</v>
+        <v>-3916638.027357003</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
@@ -4130,22 +4186,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>7.614</v>
+        <v>7.71</v>
       </c>
       <c r="C104" t="n">
-        <v>7.614</v>
+        <v>7.71</v>
       </c>
       <c r="D104" t="n">
-        <v>7.614</v>
+        <v>7.71</v>
       </c>
       <c r="E104" t="n">
-        <v>7.614</v>
+        <v>7.71</v>
       </c>
       <c r="F104" t="n">
-        <v>41844.1382</v>
+        <v>1297.3533</v>
       </c>
       <c r="G104" t="n">
-        <v>-4631621.553385787</v>
+        <v>-3917935.380657003</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4166,22 +4222,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>7.615</v>
+        <v>7.779</v>
       </c>
       <c r="C105" t="n">
-        <v>7.614</v>
+        <v>7.779</v>
       </c>
       <c r="D105" t="n">
-        <v>7.615</v>
+        <v>7.779</v>
       </c>
       <c r="E105" t="n">
-        <v>7.614</v>
+        <v>7.779</v>
       </c>
       <c r="F105" t="n">
-        <v>53006.1095</v>
+        <v>65</v>
       </c>
       <c r="G105" t="n">
-        <v>-4631621.553385787</v>
+        <v>-3917870.380657003</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4202,22 +4258,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>7.749</v>
+        <v>7.607</v>
       </c>
       <c r="C106" t="n">
-        <v>7.749</v>
+        <v>7.6</v>
       </c>
       <c r="D106" t="n">
-        <v>7.749</v>
+        <v>7.607</v>
       </c>
       <c r="E106" t="n">
-        <v>7.749</v>
+        <v>7.6</v>
       </c>
       <c r="F106" t="n">
-        <v>65</v>
+        <v>324410.467</v>
       </c>
       <c r="G106" t="n">
-        <v>-4631556.553385787</v>
+        <v>-4242280.847657003</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4238,22 +4294,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>7.718</v>
+        <v>7.776</v>
       </c>
       <c r="C107" t="n">
-        <v>7.718</v>
+        <v>7.776</v>
       </c>
       <c r="D107" t="n">
-        <v>7.718</v>
+        <v>7.776</v>
       </c>
       <c r="E107" t="n">
-        <v>7.718</v>
+        <v>7.776</v>
       </c>
       <c r="F107" t="n">
-        <v>6000</v>
+        <v>1500</v>
       </c>
       <c r="G107" t="n">
-        <v>-4637556.553385787</v>
+        <v>-4240780.847657003</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4274,28 +4330,28 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>7.748</v>
+        <v>7.776</v>
       </c>
       <c r="C108" t="n">
-        <v>7.748</v>
+        <v>7.786</v>
       </c>
       <c r="D108" t="n">
-        <v>7.748</v>
+        <v>7.786</v>
       </c>
       <c r="E108" t="n">
-        <v>7.748</v>
+        <v>7.776</v>
       </c>
       <c r="F108" t="n">
-        <v>65</v>
+        <v>64452.5849</v>
       </c>
       <c r="G108" t="n">
-        <v>-4637491.553385787</v>
+        <v>-4176328.262757002</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
@@ -4310,38 +4366,32 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>7.731</v>
+        <v>7.787</v>
       </c>
       <c r="C109" t="n">
-        <v>7.73</v>
+        <v>8.09</v>
       </c>
       <c r="D109" t="n">
-        <v>7.731</v>
+        <v>8.09</v>
       </c>
       <c r="E109" t="n">
-        <v>7.73</v>
+        <v>7.787</v>
       </c>
       <c r="F109" t="n">
-        <v>281011.1903</v>
+        <v>25707.715</v>
       </c>
       <c r="G109" t="n">
-        <v>-4918502.743685787</v>
+        <v>-4150620.547757003</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>1</v>
-      </c>
-      <c r="J109" t="n">
-        <v>7.748</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4352,36 +4402,32 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>7.73</v>
+        <v>7.96</v>
       </c>
       <c r="C110" t="n">
-        <v>7.73</v>
+        <v>7.96</v>
       </c>
       <c r="D110" t="n">
-        <v>7.73</v>
+        <v>7.96</v>
       </c>
       <c r="E110" t="n">
-        <v>7.73</v>
+        <v>7.96</v>
       </c>
       <c r="F110" t="n">
-        <v>47451.6242</v>
+        <v>3197.3406</v>
       </c>
       <c r="G110" t="n">
-        <v>-4918502.743685787</v>
+        <v>-4153817.888357003</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4392,38 +4438,32 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>7.748</v>
+        <v>7.959</v>
       </c>
       <c r="C111" t="n">
-        <v>7.748</v>
+        <v>7.96</v>
       </c>
       <c r="D111" t="n">
-        <v>7.748</v>
+        <v>7.96</v>
       </c>
       <c r="E111" t="n">
-        <v>7.748</v>
+        <v>7.959</v>
       </c>
       <c r="F111" t="n">
-        <v>25022.1986</v>
+        <v>12000</v>
       </c>
       <c r="G111" t="n">
-        <v>-4893480.545085787</v>
+        <v>-4153817.888357003</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>1</v>
-      </c>
-      <c r="J111" t="n">
-        <v>7.73</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4434,36 +4474,32 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>7.775</v>
+        <v>7.959</v>
       </c>
       <c r="C112" t="n">
-        <v>7.81</v>
+        <v>7.959</v>
       </c>
       <c r="D112" t="n">
-        <v>7.81</v>
+        <v>7.959</v>
       </c>
       <c r="E112" t="n">
-        <v>7.775</v>
+        <v>7.959</v>
       </c>
       <c r="F112" t="n">
-        <v>25647.53240649168</v>
+        <v>200.0251287850232</v>
       </c>
       <c r="G112" t="n">
-        <v>-4867833.012679296</v>
+        <v>-4154017.913485788</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4474,36 +4510,32 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>7.761</v>
+        <v>7.661</v>
       </c>
       <c r="C113" t="n">
-        <v>7.73</v>
+        <v>7.661</v>
       </c>
       <c r="D113" t="n">
-        <v>7.761</v>
+        <v>7.661</v>
       </c>
       <c r="E113" t="n">
-        <v>7.73</v>
+        <v>7.661</v>
       </c>
       <c r="F113" t="n">
-        <v>100195.7396</v>
+        <v>10566.9094</v>
       </c>
       <c r="G113" t="n">
-        <v>-4968028.752279296</v>
+        <v>-4164584.822885788</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4514,22 +4546,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>7.73</v>
+        <v>7.958</v>
       </c>
       <c r="C114" t="n">
-        <v>7.72</v>
+        <v>7.958</v>
       </c>
       <c r="D114" t="n">
-        <v>7.73</v>
+        <v>7.958</v>
       </c>
       <c r="E114" t="n">
-        <v>7.72</v>
+        <v>7.958</v>
       </c>
       <c r="F114" t="n">
-        <v>30327.9573</v>
+        <v>63</v>
       </c>
       <c r="G114" t="n">
-        <v>-4998356.709579295</v>
+        <v>-4164521.822885788</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4539,11 +4571,7 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4554,22 +4582,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>7.68</v>
+        <v>7.897</v>
       </c>
       <c r="C115" t="n">
-        <v>7.68</v>
+        <v>7.897</v>
       </c>
       <c r="D115" t="n">
-        <v>7.68</v>
+        <v>7.897</v>
       </c>
       <c r="E115" t="n">
-        <v>7.68</v>
+        <v>7.897</v>
       </c>
       <c r="F115" t="n">
-        <v>2000</v>
+        <v>42044.4065</v>
       </c>
       <c r="G115" t="n">
-        <v>-5000356.709579295</v>
+        <v>-4206566.229385788</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4579,11 +4607,7 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4594,22 +4618,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>7.679</v>
+        <v>7.897</v>
       </c>
       <c r="C116" t="n">
-        <v>7.679</v>
+        <v>7.897</v>
       </c>
       <c r="D116" t="n">
-        <v>7.679</v>
+        <v>7.897</v>
       </c>
       <c r="E116" t="n">
-        <v>7.679</v>
+        <v>7.897</v>
       </c>
       <c r="F116" t="n">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="G116" t="n">
-        <v>-5001356.709579295</v>
+        <v>-4206566.229385788</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4619,11 +4643,7 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4634,22 +4654,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>7.634</v>
+        <v>7.897</v>
       </c>
       <c r="C117" t="n">
-        <v>7.634</v>
+        <v>7.897</v>
       </c>
       <c r="D117" t="n">
-        <v>7.634</v>
+        <v>7.897</v>
       </c>
       <c r="E117" t="n">
-        <v>7.634</v>
+        <v>7.897</v>
       </c>
       <c r="F117" t="n">
-        <v>5031.9425</v>
+        <v>2500</v>
       </c>
       <c r="G117" t="n">
-        <v>-5006388.652079295</v>
+        <v>-4206566.229385788</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4659,11 +4679,7 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4674,22 +4690,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>7.63</v>
+        <v>7.898</v>
       </c>
       <c r="C118" t="n">
-        <v>7.63</v>
+        <v>7.94</v>
       </c>
       <c r="D118" t="n">
-        <v>7.63</v>
+        <v>7.94</v>
       </c>
       <c r="E118" t="n">
-        <v>7.63</v>
+        <v>7.898</v>
       </c>
       <c r="F118" t="n">
-        <v>16988.2697</v>
+        <v>3012.022946246851</v>
       </c>
       <c r="G118" t="n">
-        <v>-5023376.921779295</v>
+        <v>-4203554.206439541</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4699,11 +4715,7 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4714,22 +4726,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>7.629</v>
+        <v>7.897</v>
       </c>
       <c r="C119" t="n">
-        <v>7.63</v>
+        <v>7.939</v>
       </c>
       <c r="D119" t="n">
-        <v>7.63</v>
+        <v>7.939</v>
       </c>
       <c r="E119" t="n">
-        <v>7.629</v>
+        <v>7.603</v>
       </c>
       <c r="F119" t="n">
-        <v>383067.5961</v>
+        <v>181579.464</v>
       </c>
       <c r="G119" t="n">
-        <v>-5023376.921779295</v>
+        <v>-4385133.67043954</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4739,11 +4751,7 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4754,38 +4762,32 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>7.769</v>
+        <v>7.94</v>
       </c>
       <c r="C120" t="n">
-        <v>7.769</v>
+        <v>7.94</v>
       </c>
       <c r="D120" t="n">
-        <v>7.769</v>
+        <v>7.94</v>
       </c>
       <c r="E120" t="n">
-        <v>7.769</v>
+        <v>7.94</v>
       </c>
       <c r="F120" t="n">
-        <v>49217.0919</v>
+        <v>100.2134</v>
       </c>
       <c r="G120" t="n">
-        <v>-4974159.829879295</v>
+        <v>-4385033.457039541</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>7.63</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4796,38 +4798,32 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>7.619</v>
+        <v>7.939</v>
       </c>
       <c r="C121" t="n">
-        <v>7.619</v>
+        <v>7.939</v>
       </c>
       <c r="D121" t="n">
-        <v>7.619</v>
+        <v>7.939</v>
       </c>
       <c r="E121" t="n">
-        <v>7.619</v>
+        <v>7.939</v>
       </c>
       <c r="F121" t="n">
-        <v>22715.222</v>
+        <v>20154.4502</v>
       </c>
       <c r="G121" t="n">
-        <v>-4996875.051879295</v>
+        <v>-4405187.90723954</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>7.769</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4838,38 +4834,32 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>7.818</v>
+        <v>7.927</v>
       </c>
       <c r="C122" t="n">
-        <v>7.818</v>
+        <v>7.939</v>
       </c>
       <c r="D122" t="n">
-        <v>7.818</v>
+        <v>7.939</v>
       </c>
       <c r="E122" t="n">
-        <v>7.818</v>
+        <v>7.927</v>
       </c>
       <c r="F122" t="n">
-        <v>64</v>
+        <v>31622.0583</v>
       </c>
       <c r="G122" t="n">
-        <v>-4996811.051879295</v>
+        <v>-4405187.90723954</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>7.619</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4880,38 +4870,32 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>7.818</v>
+        <v>7.939</v>
       </c>
       <c r="C123" t="n">
-        <v>7.822</v>
+        <v>7.956</v>
       </c>
       <c r="D123" t="n">
-        <v>7.822</v>
+        <v>7.956</v>
       </c>
       <c r="E123" t="n">
-        <v>7.818</v>
+        <v>7.939</v>
       </c>
       <c r="F123" t="n">
-        <v>15300</v>
+        <v>89963.32635375315</v>
       </c>
       <c r="G123" t="n">
-        <v>-4981511.051879295</v>
+        <v>-4315224.580885787</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>7.818</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4922,22 +4906,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>7.79</v>
+        <v>8.022</v>
       </c>
       <c r="C124" t="n">
-        <v>7.79</v>
+        <v>8.022</v>
       </c>
       <c r="D124" t="n">
-        <v>7.79</v>
+        <v>8.022</v>
       </c>
       <c r="E124" t="n">
-        <v>7.79</v>
+        <v>8.022</v>
       </c>
       <c r="F124" t="n">
-        <v>348.3716</v>
+        <v>63</v>
       </c>
       <c r="G124" t="n">
-        <v>-4981859.423479295</v>
+        <v>-4315161.580885787</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4947,11 +4931,7 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -4962,22 +4942,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>7.79</v>
+        <v>7.856</v>
       </c>
       <c r="C125" t="n">
-        <v>7.79</v>
+        <v>7.856</v>
       </c>
       <c r="D125" t="n">
-        <v>7.79</v>
+        <v>7.856</v>
       </c>
       <c r="E125" t="n">
-        <v>7.79</v>
+        <v>7.856</v>
       </c>
       <c r="F125" t="n">
-        <v>6991</v>
+        <v>3375.4274</v>
       </c>
       <c r="G125" t="n">
-        <v>-4981859.423479295</v>
+        <v>-4318537.008285788</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4987,11 +4967,7 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5002,22 +4978,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>7.79</v>
+        <v>7.856</v>
       </c>
       <c r="C126" t="n">
-        <v>7.79</v>
+        <v>7.856</v>
       </c>
       <c r="D126" t="n">
-        <v>7.79</v>
+        <v>7.856</v>
       </c>
       <c r="E126" t="n">
-        <v>7.79</v>
+        <v>7.856</v>
       </c>
       <c r="F126" t="n">
-        <v>3008</v>
+        <v>4830.9165</v>
       </c>
       <c r="G126" t="n">
-        <v>-4981859.423479295</v>
+        <v>-4318537.008285788</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5027,11 +5003,7 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5042,38 +5014,32 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>7.712</v>
+        <v>8</v>
       </c>
       <c r="C127" t="n">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="D127" t="n">
-        <v>7.712</v>
+        <v>8</v>
       </c>
       <c r="E127" t="n">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="F127" t="n">
-        <v>347949.1581</v>
+        <v>63</v>
       </c>
       <c r="G127" t="n">
-        <v>-5329808.581579295</v>
+        <v>-4318474.008285788</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>7.79</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5084,22 +5050,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>7.79</v>
+        <v>7.95</v>
       </c>
       <c r="C128" t="n">
-        <v>7.79</v>
+        <v>7.95</v>
       </c>
       <c r="D128" t="n">
-        <v>7.79</v>
+        <v>7.96</v>
       </c>
       <c r="E128" t="n">
-        <v>7.79</v>
+        <v>7.95</v>
       </c>
       <c r="F128" t="n">
-        <v>65</v>
+        <v>135519.77</v>
       </c>
       <c r="G128" t="n">
-        <v>-5329743.581579295</v>
+        <v>-4453993.778285787</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5109,11 +5075,7 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5124,22 +5086,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>7.701</v>
+        <v>7.95</v>
       </c>
       <c r="C129" t="n">
-        <v>7.7</v>
+        <v>7.95</v>
       </c>
       <c r="D129" t="n">
-        <v>7.701</v>
+        <v>7.95</v>
       </c>
       <c r="E129" t="n">
-        <v>7.7</v>
+        <v>7.95</v>
       </c>
       <c r="F129" t="n">
-        <v>44364.345</v>
+        <v>8270.696</v>
       </c>
       <c r="G129" t="n">
-        <v>-5374107.926579295</v>
+        <v>-4453993.778285787</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5149,15 +5111,1055 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
       <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>7.854</v>
+      </c>
+      <c r="C130" t="n">
+        <v>7.621</v>
+      </c>
+      <c r="D130" t="n">
+        <v>7.854</v>
+      </c>
+      <c r="E130" t="n">
+        <v>7.621</v>
+      </c>
+      <c r="F130" t="n">
+        <v>126479.3012</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-4580473.079485787</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>7.76</v>
+      </c>
+      <c r="C131" t="n">
+        <v>7.76</v>
+      </c>
+      <c r="D131" t="n">
+        <v>7.76</v>
+      </c>
+      <c r="E131" t="n">
+        <v>7.76</v>
+      </c>
+      <c r="F131" t="n">
+        <v>65</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-4580408.079485787</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>7.632</v>
+      </c>
+      <c r="C132" t="n">
+        <v>7.614</v>
+      </c>
+      <c r="D132" t="n">
+        <v>7.632</v>
+      </c>
+      <c r="E132" t="n">
+        <v>7.614</v>
+      </c>
+      <c r="F132" t="n">
+        <v>51213.4739</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-4631621.553385787</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>7.614</v>
+      </c>
+      <c r="C133" t="n">
+        <v>7.614</v>
+      </c>
+      <c r="D133" t="n">
+        <v>7.614</v>
+      </c>
+      <c r="E133" t="n">
+        <v>7.614</v>
+      </c>
+      <c r="F133" t="n">
+        <v>41844.1382</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-4631621.553385787</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>7.615</v>
+      </c>
+      <c r="C134" t="n">
+        <v>7.614</v>
+      </c>
+      <c r="D134" t="n">
+        <v>7.615</v>
+      </c>
+      <c r="E134" t="n">
+        <v>7.614</v>
+      </c>
+      <c r="F134" t="n">
+        <v>53006.1095</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-4631621.553385787</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>7.749</v>
+      </c>
+      <c r="C135" t="n">
+        <v>7.749</v>
+      </c>
+      <c r="D135" t="n">
+        <v>7.749</v>
+      </c>
+      <c r="E135" t="n">
+        <v>7.749</v>
+      </c>
+      <c r="F135" t="n">
+        <v>65</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-4631556.553385787</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>7.718</v>
+      </c>
+      <c r="C136" t="n">
+        <v>7.718</v>
+      </c>
+      <c r="D136" t="n">
+        <v>7.718</v>
+      </c>
+      <c r="E136" t="n">
+        <v>7.718</v>
+      </c>
+      <c r="F136" t="n">
+        <v>6000</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-4637556.553385787</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>7.748</v>
+      </c>
+      <c r="C137" t="n">
+        <v>7.748</v>
+      </c>
+      <c r="D137" t="n">
+        <v>7.748</v>
+      </c>
+      <c r="E137" t="n">
+        <v>7.748</v>
+      </c>
+      <c r="F137" t="n">
+        <v>65</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-4637491.553385787</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>7.731</v>
+      </c>
+      <c r="C138" t="n">
+        <v>7.73</v>
+      </c>
+      <c r="D138" t="n">
+        <v>7.731</v>
+      </c>
+      <c r="E138" t="n">
+        <v>7.73</v>
+      </c>
+      <c r="F138" t="n">
+        <v>281011.1903</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-4918502.743685787</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>7.73</v>
+      </c>
+      <c r="C139" t="n">
+        <v>7.73</v>
+      </c>
+      <c r="D139" t="n">
+        <v>7.73</v>
+      </c>
+      <c r="E139" t="n">
+        <v>7.73</v>
+      </c>
+      <c r="F139" t="n">
+        <v>47451.6242</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-4918502.743685787</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>7.748</v>
+      </c>
+      <c r="C140" t="n">
+        <v>7.748</v>
+      </c>
+      <c r="D140" t="n">
+        <v>7.748</v>
+      </c>
+      <c r="E140" t="n">
+        <v>7.748</v>
+      </c>
+      <c r="F140" t="n">
+        <v>25022.1986</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-4893480.545085787</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>7.775</v>
+      </c>
+      <c r="C141" t="n">
+        <v>7.81</v>
+      </c>
+      <c r="D141" t="n">
+        <v>7.81</v>
+      </c>
+      <c r="E141" t="n">
+        <v>7.775</v>
+      </c>
+      <c r="F141" t="n">
+        <v>25647.53240649168</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-4867833.012679296</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>7.761</v>
+      </c>
+      <c r="C142" t="n">
+        <v>7.73</v>
+      </c>
+      <c r="D142" t="n">
+        <v>7.761</v>
+      </c>
+      <c r="E142" t="n">
+        <v>7.73</v>
+      </c>
+      <c r="F142" t="n">
+        <v>100195.7396</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-4968028.752279296</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>7.73</v>
+      </c>
+      <c r="C143" t="n">
+        <v>7.72</v>
+      </c>
+      <c r="D143" t="n">
+        <v>7.73</v>
+      </c>
+      <c r="E143" t="n">
+        <v>7.72</v>
+      </c>
+      <c r="F143" t="n">
+        <v>30327.9573</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-4998356.709579295</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>7.68</v>
+      </c>
+      <c r="C144" t="n">
+        <v>7.68</v>
+      </c>
+      <c r="D144" t="n">
+        <v>7.68</v>
+      </c>
+      <c r="E144" t="n">
+        <v>7.68</v>
+      </c>
+      <c r="F144" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-5000356.709579295</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>7.679</v>
+      </c>
+      <c r="C145" t="n">
+        <v>7.679</v>
+      </c>
+      <c r="D145" t="n">
+        <v>7.679</v>
+      </c>
+      <c r="E145" t="n">
+        <v>7.679</v>
+      </c>
+      <c r="F145" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-5001356.709579295</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>7.634</v>
+      </c>
+      <c r="C146" t="n">
+        <v>7.634</v>
+      </c>
+      <c r="D146" t="n">
+        <v>7.634</v>
+      </c>
+      <c r="E146" t="n">
+        <v>7.634</v>
+      </c>
+      <c r="F146" t="n">
+        <v>5031.9425</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-5006388.652079295</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>7.63</v>
+      </c>
+      <c r="C147" t="n">
+        <v>7.63</v>
+      </c>
+      <c r="D147" t="n">
+        <v>7.63</v>
+      </c>
+      <c r="E147" t="n">
+        <v>7.63</v>
+      </c>
+      <c r="F147" t="n">
+        <v>16988.2697</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-5023376.921779295</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>7.629</v>
+      </c>
+      <c r="C148" t="n">
+        <v>7.63</v>
+      </c>
+      <c r="D148" t="n">
+        <v>7.63</v>
+      </c>
+      <c r="E148" t="n">
+        <v>7.629</v>
+      </c>
+      <c r="F148" t="n">
+        <v>383067.5961</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-5023376.921779295</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>7.769</v>
+      </c>
+      <c r="C149" t="n">
+        <v>7.769</v>
+      </c>
+      <c r="D149" t="n">
+        <v>7.769</v>
+      </c>
+      <c r="E149" t="n">
+        <v>7.769</v>
+      </c>
+      <c r="F149" t="n">
+        <v>49217.0919</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-4974159.829879295</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>7.619</v>
+      </c>
+      <c r="C150" t="n">
+        <v>7.619</v>
+      </c>
+      <c r="D150" t="n">
+        <v>7.619</v>
+      </c>
+      <c r="E150" t="n">
+        <v>7.619</v>
+      </c>
+      <c r="F150" t="n">
+        <v>22715.222</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-4996875.051879295</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>7.818</v>
+      </c>
+      <c r="C151" t="n">
+        <v>7.818</v>
+      </c>
+      <c r="D151" t="n">
+        <v>7.818</v>
+      </c>
+      <c r="E151" t="n">
+        <v>7.818</v>
+      </c>
+      <c r="F151" t="n">
+        <v>64</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-4996811.051879295</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>7.818</v>
+      </c>
+      <c r="C152" t="n">
+        <v>7.822</v>
+      </c>
+      <c r="D152" t="n">
+        <v>7.822</v>
+      </c>
+      <c r="E152" t="n">
+        <v>7.818</v>
+      </c>
+      <c r="F152" t="n">
+        <v>15300</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-4981511.051879295</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="C153" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="D153" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="E153" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="F153" t="n">
+        <v>348.3716</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-4981859.423479295</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="C154" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="D154" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="E154" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="F154" t="n">
+        <v>6991</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-4981859.423479295</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="C155" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="D155" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="E155" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="F155" t="n">
+        <v>3008</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-4981859.423479295</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>7.712</v>
+      </c>
+      <c r="C156" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="D156" t="n">
+        <v>7.712</v>
+      </c>
+      <c r="E156" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="F156" t="n">
+        <v>347949.1581</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-5329808.581579295</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="C157" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="D157" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="E157" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="F157" t="n">
+        <v>65</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-5329743.581579295</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>7.701</v>
+      </c>
+      <c r="C158" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="D158" t="n">
+        <v>7.701</v>
+      </c>
+      <c r="E158" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="F158" t="n">
+        <v>44364.345</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-5374107.926579295</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-16 BackTest PCM.xlsx
+++ b/BackTest/2020-01-16 BackTest PCM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N158"/>
+  <dimension ref="A1:M158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,18 +484,15 @@
         <v>-941106.3628000002</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -528,18 +517,15 @@
         <v>-956094.7888000002</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,18 +550,15 @@
         <v>-956094.7888000002</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,18 +583,15 @@
         <v>-956094.7888000002</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -636,18 +616,15 @@
         <v>-961480.3144000003</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,18 +649,15 @@
         <v>-990379.3144000003</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -708,18 +682,15 @@
         <v>-1200380.7552</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -744,18 +715,15 @@
         <v>-1200315.7552</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -780,18 +748,15 @@
         <v>-1269820.4043</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -816,18 +781,15 @@
         <v>-1269755.3945</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -852,18 +814,15 @@
         <v>-1544855.3945</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1536,18 +1441,15 @@
         <v>-2930610.7644</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2688,18 +2497,19 @@
         <v>-5142042.938500001</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
+        <v>7.37</v>
+      </c>
+      <c r="J64" t="n">
+        <v>7.37</v>
+      </c>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2724,22 +2534,23 @@
         <v>-5125995.675000001</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>7.357</v>
       </c>
       <c r="J65" t="n">
-        <v>7.357</v>
-      </c>
-      <c r="K65" t="n">
-        <v>7.357</v>
-      </c>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+        <v>7.37</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2764,26 +2575,23 @@
         <v>-5125995.675000001</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>7.359</v>
       </c>
       <c r="J66" t="n">
-        <v>7.359</v>
-      </c>
-      <c r="K66" t="n">
-        <v>7.357</v>
-      </c>
-      <c r="L66" t="inlineStr">
+        <v>7.37</v>
+      </c>
+      <c r="K66" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2808,62 +2616,60 @@
         <v>-4525995.675000001</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>7.359</v>
       </c>
       <c r="J67" t="n">
         <v>7.359</v>
       </c>
-      <c r="K67" t="n">
-        <v>7.357</v>
-      </c>
-      <c r="L67" t="inlineStr">
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>7.481</v>
+      </c>
+      <c r="C68" t="n">
+        <v>7.47</v>
+      </c>
+      <c r="D68" t="n">
+        <v>7.481</v>
+      </c>
+      <c r="E68" t="n">
+        <v>7.47</v>
+      </c>
+      <c r="F68" t="n">
+        <v>69547.6728</v>
+      </c>
+      <c r="G68" t="n">
+        <v>-4595543.347800001</v>
+      </c>
+      <c r="H68" t="n">
+        <v>2</v>
+      </c>
+      <c r="I68" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="J68" t="n">
+        <v>7.359</v>
+      </c>
+      <c r="K68" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
-        <v>7.481</v>
-      </c>
-      <c r="C68" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="D68" t="n">
-        <v>7.481</v>
-      </c>
-      <c r="E68" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="F68" t="n">
-        <v>69547.6728</v>
-      </c>
-      <c r="G68" t="n">
-        <v>-4595543.347800001</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2888,22 +2694,21 @@
         <v>-4595613.447600001</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="K69" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+        <v>7.359</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2928,146 +2733,134 @@
         <v>-4589629.5184</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="K70" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="L70" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="C71" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="D71" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="E71" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="F71" t="n">
+        <v>24726.099</v>
+      </c>
+      <c r="G71" t="n">
+        <v>-4614355.617400001</v>
+      </c>
+      <c r="H71" t="n">
+        <v>2</v>
+      </c>
+      <c r="I71" t="n">
+        <v>7.597</v>
+      </c>
+      <c r="J71" t="n">
+        <v>7.597</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="C72" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="D72" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="E72" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="F72" t="n">
+        <v>20126.6882</v>
+      </c>
+      <c r="G72" t="n">
+        <v>-4614355.617400001</v>
+      </c>
+      <c r="H72" t="n">
+        <v>2</v>
+      </c>
+      <c r="I72" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="J72" t="n">
+        <v>7.597</v>
+      </c>
+      <c r="K72" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>7.43</v>
+      </c>
+      <c r="C73" t="n">
+        <v>7.43</v>
+      </c>
+      <c r="D73" t="n">
+        <v>7.43</v>
+      </c>
+      <c r="E73" t="n">
+        <v>7.43</v>
+      </c>
+      <c r="F73" t="n">
+        <v>70.1122</v>
+      </c>
+      <c r="G73" t="n">
+        <v>-4614425.729600001</v>
+      </c>
+      <c r="H73" t="n">
+        <v>2</v>
+      </c>
+      <c r="I73" t="n">
         <v>7.5</v>
       </c>
-      <c r="C71" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="D71" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="E71" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="F71" t="n">
-        <v>24726.099</v>
-      </c>
-      <c r="G71" t="n">
-        <v>-4614355.617400001</v>
-      </c>
-      <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="n">
+      <c r="J73" t="n">
         <v>7.597</v>
       </c>
-      <c r="K71" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="L71" t="inlineStr">
+      <c r="K73" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="C72" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="D72" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="E72" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="F72" t="n">
-        <v>20126.6882</v>
-      </c>
-      <c r="G72" t="n">
-        <v>-4614355.617400001</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
-        <v>7.43</v>
-      </c>
-      <c r="C73" t="n">
-        <v>7.43</v>
-      </c>
-      <c r="D73" t="n">
-        <v>7.43</v>
-      </c>
-      <c r="E73" t="n">
-        <v>7.43</v>
-      </c>
-      <c r="F73" t="n">
-        <v>70.1122</v>
-      </c>
-      <c r="G73" t="n">
-        <v>-4614425.729600001</v>
-      </c>
-      <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K73" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3094,142 +2887,130 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="L74" t="inlineStr">
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>7.585</v>
+      </c>
+      <c r="C75" t="n">
+        <v>7.585</v>
+      </c>
+      <c r="D75" t="n">
+        <v>7.585</v>
+      </c>
+      <c r="E75" t="n">
+        <v>7.585</v>
+      </c>
+      <c r="F75" t="n">
+        <v>9665.382600000001</v>
+      </c>
+      <c r="G75" t="n">
+        <v>-4614359.729600001</v>
+      </c>
+      <c r="H75" t="n">
+        <v>2</v>
+      </c>
+      <c r="I75" t="n">
+        <v>7.585</v>
+      </c>
+      <c r="J75" t="n">
+        <v>7.585</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>7.585</v>
+      </c>
+      <c r="C76" t="n">
+        <v>7.585</v>
+      </c>
+      <c r="D76" t="n">
+        <v>7.585</v>
+      </c>
+      <c r="E76" t="n">
+        <v>7.585</v>
+      </c>
+      <c r="F76" t="n">
+        <v>3731.3594</v>
+      </c>
+      <c r="G76" t="n">
+        <v>-4614359.729600001</v>
+      </c>
+      <c r="H76" t="n">
+        <v>2</v>
+      </c>
+      <c r="I76" t="n">
+        <v>7.585</v>
+      </c>
+      <c r="J76" t="n">
+        <v>7.585</v>
+      </c>
+      <c r="K76" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
         <v>7.585</v>
       </c>
-      <c r="C75" t="n">
+      <c r="C77" t="n">
         <v>7.585</v>
       </c>
-      <c r="D75" t="n">
+      <c r="D77" t="n">
         <v>7.585</v>
       </c>
-      <c r="E75" t="n">
+      <c r="E77" t="n">
         <v>7.585</v>
       </c>
-      <c r="F75" t="n">
-        <v>9665.382600000001</v>
-      </c>
-      <c r="G75" t="n">
+      <c r="F77" t="n">
+        <v>4967.485</v>
+      </c>
+      <c r="G77" t="n">
         <v>-4614359.729600001</v>
       </c>
-      <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="n">
         <v>7.585</v>
       </c>
-      <c r="K75" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="L75" t="inlineStr">
+      <c r="K77" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="n">
-        <v>7.585</v>
-      </c>
-      <c r="C76" t="n">
-        <v>7.585</v>
-      </c>
-      <c r="D76" t="n">
-        <v>7.585</v>
-      </c>
-      <c r="E76" t="n">
-        <v>7.585</v>
-      </c>
-      <c r="F76" t="n">
-        <v>3731.3594</v>
-      </c>
-      <c r="G76" t="n">
-        <v>-4614359.729600001</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="n">
-        <v>7.585</v>
-      </c>
-      <c r="C77" t="n">
-        <v>7.585</v>
-      </c>
-      <c r="D77" t="n">
-        <v>7.585</v>
-      </c>
-      <c r="E77" t="n">
-        <v>7.585</v>
-      </c>
-      <c r="F77" t="n">
-        <v>4967.485</v>
-      </c>
-      <c r="G77" t="n">
-        <v>-4614359.729600001</v>
-      </c>
-      <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>7.585</v>
-      </c>
-      <c r="K77" t="n">
-        <v>7.585</v>
-      </c>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3254,68 +3035,58 @@
         <v>-4615252.316900001</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
         <v>7.585</v>
       </c>
-      <c r="L78" t="inlineStr">
+      <c r="J78" t="n">
+        <v>7.585</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>7.585</v>
+      </c>
+      <c r="C79" t="n">
+        <v>7.585</v>
+      </c>
+      <c r="D79" t="n">
+        <v>7.585</v>
+      </c>
+      <c r="E79" t="n">
+        <v>7.585</v>
+      </c>
+      <c r="F79" t="n">
+        <v>66</v>
+      </c>
+      <c r="G79" t="n">
+        <v>-4615186.316900001</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>7.585</v>
+      </c>
+      <c r="K79" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="n">
-        <v>7.585</v>
-      </c>
-      <c r="C79" t="n">
-        <v>7.585</v>
-      </c>
-      <c r="D79" t="n">
-        <v>7.585</v>
-      </c>
-      <c r="E79" t="n">
-        <v>7.585</v>
-      </c>
-      <c r="F79" t="n">
-        <v>66</v>
-      </c>
-      <c r="G79" t="n">
-        <v>-4615186.316900001</v>
-      </c>
-      <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>7.45</v>
-      </c>
-      <c r="K79" t="n">
-        <v>7.585</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3342,16 +3113,19 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>7.585</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3378,16 +3152,19 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>7.585</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3414,16 +3191,19 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>7.585</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3450,16 +3230,19 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>7.585</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3486,16 +3269,19 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>7.585</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3522,16 +3308,19 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>7.585</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3558,16 +3347,19 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>7.585</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3594,16 +3386,19 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>7.585</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3630,16 +3425,19 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>7.585</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3666,16 +3464,19 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>7.585</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3702,16 +3503,19 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>7.585</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3738,16 +3542,19 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>7.585</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3774,16 +3581,19 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>7.585</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3810,16 +3620,19 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>7.585</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3846,16 +3659,19 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>7.585</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3882,16 +3698,19 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>7.585</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3918,16 +3737,19 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>7.585</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3954,16 +3776,19 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>7.585</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3988,18 +3813,23 @@
         <v>-3748572.484457003</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>7.585</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1.067907053394858</v>
+      </c>
       <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+        <v>1.076566757493188</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4024,18 +3854,15 @@
         <v>-3748634.484457003</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4060,18 +3887,15 @@
         <v>-3748697.484457003</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4096,18 +3920,15 @@
         <v>-3751254.986657003</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4132,18 +3953,15 @@
         <v>-3766638.027357003</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4170,16 +3988,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4206,16 +4021,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4242,16 +4054,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4278,16 +4087,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4314,16 +4120,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4350,16 +4153,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4386,16 +4186,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4422,16 +4219,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4458,16 +4252,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4494,16 +4285,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4530,16 +4318,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4566,16 +4351,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4602,16 +4384,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4638,16 +4417,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4674,16 +4450,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4710,16 +4483,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4746,16 +4516,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4782,16 +4549,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4818,16 +4582,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4854,16 +4615,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4890,16 +4648,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4926,16 +4681,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4962,16 +4714,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4998,16 +4747,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5034,16 +4780,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5070,16 +4813,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5104,18 +4844,15 @@
         <v>-4453993.778285787</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5140,18 +4877,15 @@
         <v>-4580473.079485787</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5178,16 +4912,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5212,18 +4943,15 @@
         <v>-4631621.553385787</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5250,16 +4978,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5286,16 +5011,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5322,16 +5044,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5358,16 +5077,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5394,16 +5110,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5430,16 +5143,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5466,16 +5176,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5502,16 +5209,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5538,16 +5242,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5574,16 +5275,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5610,16 +5308,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5646,16 +5341,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5682,16 +5374,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5718,16 +5407,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5754,16 +5440,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5790,16 +5473,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5826,16 +5506,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5862,16 +5539,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5898,16 +5572,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5934,16 +5605,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5970,16 +5638,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6006,16 +5671,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6042,16 +5704,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6078,16 +5737,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6114,16 +5770,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6150,18 +5803,15 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest PCM.xlsx
+++ b/BackTest/2020-01-16 BackTest PCM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -484,7 +484,7 @@
         <v>-941106.3628000002</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-956094.7888000002</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-956094.7888000002</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-956094.7888000002</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-961480.3144000003</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-990379.3144000003</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-1200380.7552</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-1200315.7552</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-1269820.4043</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-1269755.3945</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-1544855.3945</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-1544790.3945</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-1695979.9146</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-1694393.8354</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-1692058.0067</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-1839050.3696</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-1839050.3696</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-1921944.378</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-2930610.7644</v>
       </c>
       <c r="H32" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-5142042.938500001</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>7.37</v>
@@ -2534,7 +2534,7 @@
         <v>-5125995.675000001</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>7.357</v>
@@ -2575,7 +2575,7 @@
         <v>-5125995.675000001</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>7.359</v>
@@ -2616,7 +2616,7 @@
         <v>-4525995.675000001</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>7.359</v>
@@ -2653,7 +2653,7 @@
         <v>-4595543.347800001</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>7.77</v>
@@ -2694,9 +2694,11 @@
         <v>-4595613.447600001</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>7.47</v>
+      </c>
       <c r="J69" t="n">
         <v>7.359</v>
       </c>
@@ -2766,14 +2768,10 @@
         <v>-4614355.617400001</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
-      </c>
-      <c r="I71" t="n">
-        <v>7.597</v>
-      </c>
-      <c r="J71" t="n">
-        <v>7.597</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
@@ -2803,130 +2801,122 @@
         <v>-4614355.617400001</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
-      </c>
-      <c r="I72" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="J72" t="n">
-        <v>7.597</v>
-      </c>
-      <c r="K72" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>7.43</v>
+      </c>
+      <c r="C73" t="n">
+        <v>7.43</v>
+      </c>
+      <c r="D73" t="n">
+        <v>7.43</v>
+      </c>
+      <c r="E73" t="n">
+        <v>7.43</v>
+      </c>
+      <c r="F73" t="n">
+        <v>70.1122</v>
+      </c>
+      <c r="G73" t="n">
+        <v>-4614425.729600001</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>7.585</v>
+      </c>
+      <c r="C74" t="n">
+        <v>7.585</v>
+      </c>
+      <c r="D74" t="n">
+        <v>7.585</v>
+      </c>
+      <c r="E74" t="n">
+        <v>7.585</v>
+      </c>
+      <c r="F74" t="n">
+        <v>66</v>
+      </c>
+      <c r="G74" t="n">
+        <v>-4614359.729600001</v>
+      </c>
+      <c r="H74" t="n">
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>7.43</v>
+      </c>
+      <c r="J74" t="n">
+        <v>7.43</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>7.585</v>
+      </c>
+      <c r="C75" t="n">
+        <v>7.585</v>
+      </c>
+      <c r="D75" t="n">
+        <v>7.585</v>
+      </c>
+      <c r="E75" t="n">
+        <v>7.585</v>
+      </c>
+      <c r="F75" t="n">
+        <v>9665.382600000001</v>
+      </c>
+      <c r="G75" t="n">
+        <v>-4614359.729600001</v>
+      </c>
+      <c r="H75" t="n">
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>7.585</v>
+      </c>
+      <c r="J75" t="n">
+        <v>7.43</v>
+      </c>
+      <c r="K75" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
-        <v>7.43</v>
-      </c>
-      <c r="C73" t="n">
-        <v>7.43</v>
-      </c>
-      <c r="D73" t="n">
-        <v>7.43</v>
-      </c>
-      <c r="E73" t="n">
-        <v>7.43</v>
-      </c>
-      <c r="F73" t="n">
-        <v>70.1122</v>
-      </c>
-      <c r="G73" t="n">
-        <v>-4614425.729600001</v>
-      </c>
-      <c r="H73" t="n">
-        <v>2</v>
-      </c>
-      <c r="I73" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="J73" t="n">
-        <v>7.597</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="n">
-        <v>7.585</v>
-      </c>
-      <c r="C74" t="n">
-        <v>7.585</v>
-      </c>
-      <c r="D74" t="n">
-        <v>7.585</v>
-      </c>
-      <c r="E74" t="n">
-        <v>7.585</v>
-      </c>
-      <c r="F74" t="n">
-        <v>66</v>
-      </c>
-      <c r="G74" t="n">
-        <v>-4614359.729600001</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>7.585</v>
-      </c>
-      <c r="C75" t="n">
-        <v>7.585</v>
-      </c>
-      <c r="D75" t="n">
-        <v>7.585</v>
-      </c>
-      <c r="E75" t="n">
-        <v>7.585</v>
-      </c>
-      <c r="F75" t="n">
-        <v>9665.382600000001</v>
-      </c>
-      <c r="G75" t="n">
-        <v>-4614359.729600001</v>
-      </c>
-      <c r="H75" t="n">
-        <v>2</v>
-      </c>
-      <c r="I75" t="n">
-        <v>7.585</v>
-      </c>
-      <c r="J75" t="n">
-        <v>7.585</v>
-      </c>
-      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2955,13 +2945,13 @@
         <v>-4614359.729600001</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>7.585</v>
       </c>
       <c r="J76" t="n">
-        <v>7.585</v>
+        <v>7.43</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -2996,54 +2986,56 @@
         <v>-4614359.729600001</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>7.585</v>
+      </c>
       <c r="J77" t="n">
         <v>7.585</v>
       </c>
-      <c r="K77" t="inlineStr">
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>7.45</v>
+      </c>
+      <c r="C78" t="n">
+        <v>7.45</v>
+      </c>
+      <c r="D78" t="n">
+        <v>7.45</v>
+      </c>
+      <c r="E78" t="n">
+        <v>7.45</v>
+      </c>
+      <c r="F78" t="n">
+        <v>892.5873</v>
+      </c>
+      <c r="G78" t="n">
+        <v>-4615252.316900001</v>
+      </c>
+      <c r="H78" t="n">
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>7.585</v>
+      </c>
+      <c r="J78" t="n">
+        <v>7.585</v>
+      </c>
+      <c r="K78" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="n">
-        <v>7.45</v>
-      </c>
-      <c r="C78" t="n">
-        <v>7.45</v>
-      </c>
-      <c r="D78" t="n">
-        <v>7.45</v>
-      </c>
-      <c r="E78" t="n">
-        <v>7.45</v>
-      </c>
-      <c r="F78" t="n">
-        <v>892.5873</v>
-      </c>
-      <c r="G78" t="n">
-        <v>-4615252.316900001</v>
-      </c>
-      <c r="H78" t="n">
-        <v>2</v>
-      </c>
-      <c r="I78" t="n">
-        <v>7.585</v>
-      </c>
-      <c r="J78" t="n">
-        <v>7.585</v>
-      </c>
-      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3072,9 +3064,11 @@
         <v>-4615186.316900001</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>7.45</v>
+      </c>
       <c r="J79" t="n">
         <v>7.585</v>
       </c>
@@ -3114,14 +3108,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>7.585</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3153,14 +3141,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>7.585</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3192,14 +3174,8 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>7.585</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3231,14 +3207,8 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>7.585</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3270,14 +3240,8 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>7.585</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3309,14 +3273,8 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>7.585</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3348,14 +3306,8 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>7.585</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3387,14 +3339,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>7.585</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3426,14 +3372,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>7.585</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3465,14 +3405,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>7.585</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3504,14 +3438,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>7.585</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3543,14 +3471,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>7.585</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3582,14 +3504,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>7.585</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3621,14 +3537,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>7.585</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3660,14 +3570,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>7.585</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3699,14 +3603,8 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>7.585</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3738,14 +3636,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>7.585</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3777,14 +3669,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>7.585</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3813,23 +3699,15 @@
         <v>-3748572.484457003</v>
       </c>
       <c r="H98" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>7.585</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
-        <v>1.067907053394858</v>
-      </c>
-      <c r="M98" t="n">
-        <v>1.076566757493188</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3854,7 +3732,7 @@
         <v>-3748634.484457003</v>
       </c>
       <c r="H99" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3887,7 +3765,7 @@
         <v>-3748697.484457003</v>
       </c>
       <c r="H100" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3920,7 +3798,7 @@
         <v>-3751254.986657003</v>
       </c>
       <c r="H101" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3953,7 +3831,7 @@
         <v>-3766638.027357003</v>
       </c>
       <c r="H102" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4844,7 +4722,7 @@
         <v>-4453993.778285787</v>
       </c>
       <c r="H129" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4877,7 +4755,7 @@
         <v>-4580473.079485787</v>
       </c>
       <c r="H130" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4943,7 +4821,7 @@
         <v>-4631621.553385787</v>
       </c>
       <c r="H132" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5768,10 +5646,14 @@
         <v>-5329743.581579295</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="J157" t="n">
+        <v>7.7</v>
+      </c>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
@@ -5804,14 +5686,20 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
       <c r="M158" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest PCM.xlsx
+++ b/BackTest/2020-01-16 BackTest PCM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -484,7 +484,7 @@
         <v>-941106.3628000002</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-956094.7888000002</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-956094.7888000002</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-956094.7888000002</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-961480.3144000003</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-990379.3144000003</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-1200380.7552</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-1200315.7552</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-1269820.4043</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-1269755.3945</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-1544855.3945</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-1544790.3945</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-1695979.9146</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-1694393.8354</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-1692058.0067</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-1839050.3696</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-1839050.3696</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-1921944.378</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -2497,14 +2497,10 @@
         <v>-5142042.938500001</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>7.37</v>
-      </c>
-      <c r="J64" t="n">
-        <v>7.37</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
@@ -2534,97 +2530,87 @@
         <v>-5125995.675000001</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>7.357</v>
-      </c>
-      <c r="J65" t="n">
-        <v>7.37</v>
-      </c>
-      <c r="K65" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>7.359</v>
+      </c>
+      <c r="C66" t="n">
+        <v>7.359</v>
+      </c>
+      <c r="D66" t="n">
+        <v>7.359</v>
+      </c>
+      <c r="E66" t="n">
+        <v>7.359</v>
+      </c>
+      <c r="F66" t="n">
+        <v>80592.4933</v>
+      </c>
+      <c r="G66" t="n">
+        <v>-5125995.675000001</v>
+      </c>
+      <c r="H66" t="n">
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>7.359</v>
+      </c>
+      <c r="J66" t="n">
+        <v>7.359</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>7.47</v>
+      </c>
+      <c r="C67" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="D67" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="E67" t="n">
+        <v>7.47</v>
+      </c>
+      <c r="F67" t="n">
+        <v>600000</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-4525995.675000001</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>7.359</v>
+      </c>
+      <c r="K67" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
-        <v>7.359</v>
-      </c>
-      <c r="C66" t="n">
-        <v>7.359</v>
-      </c>
-      <c r="D66" t="n">
-        <v>7.359</v>
-      </c>
-      <c r="E66" t="n">
-        <v>7.359</v>
-      </c>
-      <c r="F66" t="n">
-        <v>80592.4933</v>
-      </c>
-      <c r="G66" t="n">
-        <v>-5125995.675000001</v>
-      </c>
-      <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>7.359</v>
-      </c>
-      <c r="J66" t="n">
-        <v>7.37</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="C67" t="n">
-        <v>7.77</v>
-      </c>
-      <c r="D67" t="n">
-        <v>7.77</v>
-      </c>
-      <c r="E67" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="F67" t="n">
-        <v>600000</v>
-      </c>
-      <c r="G67" t="n">
-        <v>-4525995.675000001</v>
-      </c>
-      <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>7.359</v>
-      </c>
-      <c r="J67" t="n">
-        <v>7.359</v>
-      </c>
-      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2653,11 +2639,9 @@
         <v>-4595543.347800001</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>7.77</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
         <v>7.359</v>
       </c>
@@ -2694,19 +2678,11 @@
         <v>-4595613.447600001</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="J69" t="n">
-        <v>7.359</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2867,14 +2843,10 @@
         <v>-4614359.729600001</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>7.43</v>
-      </c>
-      <c r="J74" t="n">
-        <v>7.43</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
@@ -2904,19 +2876,11 @@
         <v>-4614359.729600001</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>7.585</v>
-      </c>
-      <c r="J75" t="n">
-        <v>7.43</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2945,19 +2909,11 @@
         <v>-4614359.729600001</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>7.585</v>
-      </c>
-      <c r="J76" t="n">
-        <v>7.43</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2986,14 +2942,10 @@
         <v>-4614359.729600001</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>7.585</v>
-      </c>
-      <c r="J77" t="n">
-        <v>7.585</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
@@ -3023,19 +2975,11 @@
         <v>-4615252.316900001</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>7.585</v>
-      </c>
-      <c r="J78" t="n">
-        <v>7.585</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3064,19 +3008,11 @@
         <v>-4615186.316900001</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>7.45</v>
-      </c>
-      <c r="J79" t="n">
-        <v>7.585</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -4260,7 +4196,7 @@
         <v>-4206566.229385788</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4293,7 +4229,7 @@
         <v>-4206566.229385788</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4326,7 +4262,7 @@
         <v>-4206566.229385788</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4524,7 +4460,7 @@
         <v>-4315224.580885787</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4557,7 +4493,7 @@
         <v>-4315161.580885787</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4590,7 +4526,7 @@
         <v>-4318537.008285788</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -5217,10 +5153,14 @@
         <v>-5000356.709579295</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>7.72</v>
+      </c>
+      <c r="J144" t="n">
+        <v>7.72</v>
+      </c>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
@@ -5253,8 +5193,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>7.72</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5283,11 +5229,19 @@
         <v>-5006388.652079295</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>7.679</v>
+      </c>
+      <c r="J146" t="n">
+        <v>7.72</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5316,10 +5270,14 @@
         <v>-5023376.921779295</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>7.634</v>
+      </c>
+      <c r="J147" t="n">
+        <v>7.634</v>
+      </c>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
@@ -5349,11 +5307,19 @@
         <v>-5023376.921779295</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>7.63</v>
+      </c>
+      <c r="J148" t="n">
+        <v>7.634</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5385,8 +5351,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>7.634</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5418,8 +5390,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>7.634</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5451,8 +5429,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>7.634</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5484,8 +5468,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>7.634</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5517,8 +5507,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>7.634</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5550,8 +5546,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>7.634</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5583,8 +5585,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>7.634</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5616,8 +5624,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>7.634</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5646,15 +5660,17 @@
         <v>-5329743.581579295</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>7.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K157" t="inlineStr"/>
+        <v>7.634</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5687,11 +5703,11 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="n">
-        <v>7.7</v>
+        <v>7.634</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L158" t="n">
@@ -5700,6 +5716,6 @@
       <c r="M158" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest PCM.xlsx
+++ b/BackTest/2020-01-16 BackTest PCM.xlsx
@@ -451,7 +451,7 @@
         <v>-1003867.8632</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-941106.3628000002</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-956094.7888000002</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-956094.7888000002</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-956094.7888000002</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-961480.3144000003</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-990379.3144000003</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-1200380.7552</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-1269820.4043</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -2530,10 +2530,14 @@
         <v>-5125995.675000001</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>7.357</v>
+      </c>
+      <c r="J65" t="n">
+        <v>7.357</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
@@ -2569,9 +2573,13 @@
         <v>7.359</v>
       </c>
       <c r="J66" t="n">
-        <v>7.359</v>
-      </c>
-      <c r="K66" t="inlineStr"/>
+        <v>7.357</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2600,11 +2608,13 @@
         <v>-4525995.675000001</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>7.359</v>
+      </c>
       <c r="J67" t="n">
-        <v>7.359</v>
+        <v>7.357</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -2642,14 +2652,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>7.359</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -4196,7 +4200,7 @@
         <v>-4206566.229385788</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4229,7 +4233,7 @@
         <v>-4206566.229385788</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4262,7 +4266,7 @@
         <v>-4206566.229385788</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4460,7 +4464,7 @@
         <v>-4315224.580885787</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4493,7 +4497,7 @@
         <v>-4315161.580885787</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4526,7 +4530,7 @@
         <v>-4318537.008285788</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -5153,14 +5157,10 @@
         <v>-5000356.709579295</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>7.72</v>
-      </c>
-      <c r="J144" t="n">
-        <v>7.72</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
@@ -5193,14 +5193,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>7.72</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5229,19 +5223,11 @@
         <v>-5006388.652079295</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>7.679</v>
-      </c>
-      <c r="J146" t="n">
-        <v>7.72</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5270,14 +5256,10 @@
         <v>-5023376.921779295</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>7.634</v>
-      </c>
-      <c r="J147" t="n">
-        <v>7.634</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
@@ -5307,19 +5289,11 @@
         <v>-5023376.921779295</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>7.63</v>
-      </c>
-      <c r="J148" t="n">
-        <v>7.634</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5351,14 +5325,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>7.634</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5390,14 +5358,8 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>7.634</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5429,14 +5391,8 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>7.634</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5468,14 +5424,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>7.634</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5507,14 +5457,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>7.634</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5546,14 +5490,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>7.634</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5585,14 +5523,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>7.634</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5624,14 +5556,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>7.634</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5663,14 +5589,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>7.634</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5702,14 +5622,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>7.634</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2020-01-16 BackTest PCM.xlsx
+++ b/BackTest/2020-01-16 BackTest PCM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M158"/>
+  <dimension ref="A1:L158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>5207.4592</v>
       </c>
       <c r="G2" t="n">
-        <v>-1003867.8632</v>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>62761.5004</v>
       </c>
       <c r="G3" t="n">
-        <v>-941106.3628000002</v>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>14988.426</v>
       </c>
       <c r="G4" t="n">
-        <v>-956094.7888000002</v>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>1284.9035</v>
       </c>
       <c r="G5" t="n">
-        <v>-956094.7888000002</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>6751.3089</v>
       </c>
       <c r="G6" t="n">
-        <v>-956094.7888000002</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>5385.5256</v>
       </c>
       <c r="G7" t="n">
-        <v>-961480.3144000003</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>28899</v>
       </c>
       <c r="G8" t="n">
-        <v>-990379.3144000003</v>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>210001.4408</v>
       </c>
       <c r="G9" t="n">
-        <v>-1200380.7552</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>65</v>
       </c>
       <c r="G10" t="n">
-        <v>-1200315.7552</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>69504.6491</v>
       </c>
       <c r="G11" t="n">
-        <v>-1269820.4043</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>65.0098</v>
       </c>
       <c r="G12" t="n">
-        <v>-1269755.3945</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>275100</v>
       </c>
       <c r="G13" t="n">
-        <v>-1544855.3945</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>65</v>
       </c>
       <c r="G14" t="n">
-        <v>-1544790.3945</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>151189.5201</v>
       </c>
       <c r="G15" t="n">
-        <v>-1695979.9146</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>1586.0792</v>
       </c>
       <c r="G16" t="n">
-        <v>-1694393.8354</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>2335.8287</v>
       </c>
       <c r="G17" t="n">
-        <v>-1692058.0067</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>146992.3629</v>
       </c>
       <c r="G18" t="n">
-        <v>-1839050.3696</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>23900</v>
       </c>
       <c r="G19" t="n">
-        <v>-1839050.3696</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>36.1085</v>
       </c>
       <c r="G20" t="n">
-        <v>-1839050.3696</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>82894.00840000001</v>
       </c>
       <c r="G21" t="n">
-        <v>-1921944.378</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>100000</v>
       </c>
       <c r="G22" t="n">
-        <v>-1921944.378</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>28214.9761</v>
       </c>
       <c r="G23" t="n">
-        <v>-1921944.378</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>46392.7187</v>
       </c>
       <c r="G24" t="n">
-        <v>-1921944.378</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>50267.448</v>
       </c>
       <c r="G25" t="n">
-        <v>-1921944.378</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>66</v>
       </c>
       <c r="G26" t="n">
-        <v>-1921878.378</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>4065.0394</v>
       </c>
       <c r="G27" t="n">
-        <v>-1925943.4174</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>161809.7452</v>
       </c>
       <c r="G28" t="n">
-        <v>-2087753.1626</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>14416.0945</v>
       </c>
       <c r="G29" t="n">
-        <v>-2087753.1626</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>601920.0722000001</v>
       </c>
       <c r="G30" t="n">
-        <v>-2689673.2348</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>87532.2895</v>
       </c>
       <c r="G31" t="n">
-        <v>-2777205.5243</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>153405.2401</v>
       </c>
       <c r="G32" t="n">
-        <v>-2930610.7644</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>1012078.9953</v>
       </c>
       <c r="G33" t="n">
-        <v>-3942689.7597</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>96881.8147</v>
       </c>
       <c r="G34" t="n">
-        <v>-3942689.7597</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>67</v>
       </c>
       <c r="G35" t="n">
-        <v>-3942622.7597</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>67</v>
       </c>
       <c r="G36" t="n">
-        <v>-3942622.7597</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>2853.6685</v>
       </c>
       <c r="G37" t="n">
-        <v>-3945476.4282</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>64363.8155</v>
       </c>
       <c r="G38" t="n">
-        <v>-3881112.6127</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>202985.6817</v>
       </c>
       <c r="G39" t="n">
-        <v>-4084098.2944</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>67</v>
       </c>
       <c r="G40" t="n">
-        <v>-4084031.2944</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>4205.5836</v>
       </c>
       <c r="G41" t="n">
-        <v>-4088236.878</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>531000</v>
       </c>
       <c r="G42" t="n">
-        <v>-4619236.878</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>372604.6218</v>
       </c>
       <c r="G43" t="n">
-        <v>-4991841.4998</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>67</v>
       </c>
       <c r="G44" t="n">
-        <v>-4991774.4998</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>100000</v>
       </c>
       <c r="G45" t="n">
-        <v>-5091774.4998</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>17246.8393</v>
       </c>
       <c r="G46" t="n">
-        <v>-5109021.3391</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>58073.283</v>
       </c>
       <c r="G47" t="n">
-        <v>-5050948.056100001</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>15673.2205</v>
       </c>
       <c r="G48" t="n">
-        <v>-5066621.2766</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>68</v>
       </c>
       <c r="G49" t="n">
-        <v>-5066553.2766</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,21 @@
         <v>82215.88069999999</v>
       </c>
       <c r="G50" t="n">
-        <v>-4984337.395900001</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>7.39</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1919,21 @@
         <v>69</v>
       </c>
       <c r="G51" t="n">
-        <v>-4984406.395900001</v>
+        <v>1</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>7.435</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1955,19 @@
         <v>3402.8499</v>
       </c>
       <c r="G52" t="n">
-        <v>-4984406.395900001</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1989,19 @@
         <v>100000</v>
       </c>
       <c r="G53" t="n">
-        <v>-4884406.395900001</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2023,19 @@
         <v>139480.4606</v>
       </c>
       <c r="G54" t="n">
-        <v>-5023886.856500001</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2057,21 @@
         <v>68</v>
       </c>
       <c r="G55" t="n">
-        <v>-5023818.856500001</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>7.34</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2093,21 @@
         <v>69</v>
       </c>
       <c r="G56" t="n">
-        <v>-5023887.856500001</v>
+        <v>1</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>7.435</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2129,21 @@
         <v>146511.6962</v>
       </c>
       <c r="G57" t="n">
-        <v>-5170399.552700001</v>
+        <v>1</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>7.346</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2165,21 @@
         <v>12509.5555</v>
       </c>
       <c r="G58" t="n">
-        <v>-5170399.552700001</v>
+        <v>1</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>7.345</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2201,21 @@
         <v>1783.5993</v>
       </c>
       <c r="G59" t="n">
-        <v>-5168615.953400001</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>7.345</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2237,21 @@
         <v>584.3131</v>
       </c>
       <c r="G60" t="n">
-        <v>-5168615.953400001</v>
+        <v>1</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>7.435</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2273,19 @@
         <v>68</v>
       </c>
       <c r="G61" t="n">
-        <v>-5168683.953400001</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2307,21 @@
         <v>26710.0149</v>
       </c>
       <c r="G62" t="n">
-        <v>-5141973.938500001</v>
+        <v>1</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>7.354</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2343,19 @@
         <v>49494.1748</v>
       </c>
       <c r="G63" t="n">
-        <v>-5141973.938500001</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2377,21 @@
         <v>69</v>
       </c>
       <c r="G64" t="n">
-        <v>-5142042.938500001</v>
+        <v>1</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>7.37</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,22 +2413,21 @@
         <v>16047.2635</v>
       </c>
       <c r="G65" t="n">
-        <v>-5125995.675000001</v>
+        <v>1</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
         <v>7.357</v>
       </c>
-      <c r="J65" t="n">
-        <v>7.357</v>
-      </c>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2564,26 +2449,21 @@
         <v>80592.4933</v>
       </c>
       <c r="G66" t="n">
-        <v>-5125995.675000001</v>
+        <v>1</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
         <v>7.359</v>
       </c>
-      <c r="J66" t="n">
-        <v>7.357</v>
-      </c>
-      <c r="K66" t="inlineStr">
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2605,26 +2485,21 @@
         <v>600000</v>
       </c>
       <c r="G67" t="n">
-        <v>-4525995.675000001</v>
+        <v>1</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
         <v>7.359</v>
       </c>
-      <c r="J67" t="n">
-        <v>7.357</v>
-      </c>
-      <c r="K67" t="inlineStr">
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2646,18 +2521,21 @@
         <v>69547.6728</v>
       </c>
       <c r="G68" t="n">
-        <v>-4595543.347800001</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>7.77</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2679,18 +2557,19 @@
         <v>70.0998</v>
       </c>
       <c r="G69" t="n">
-        <v>-4595613.447600001</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2712,18 +2591,19 @@
         <v>5983.9292</v>
       </c>
       <c r="G70" t="n">
-        <v>-4589629.5184</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2745,18 +2625,19 @@
         <v>24726.099</v>
       </c>
       <c r="G71" t="n">
-        <v>-4614355.617400001</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2778,18 +2659,19 @@
         <v>20126.6882</v>
       </c>
       <c r="G72" t="n">
-        <v>-4614355.617400001</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2811,18 +2693,19 @@
         <v>70.1122</v>
       </c>
       <c r="G73" t="n">
-        <v>-4614425.729600001</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2844,18 +2727,19 @@
         <v>66</v>
       </c>
       <c r="G74" t="n">
-        <v>-4614359.729600001</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2877,18 +2761,19 @@
         <v>9665.382600000001</v>
       </c>
       <c r="G75" t="n">
-        <v>-4614359.729600001</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2910,18 +2795,19 @@
         <v>3731.3594</v>
       </c>
       <c r="G76" t="n">
-        <v>-4614359.729600001</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2943,18 +2829,19 @@
         <v>4967.485</v>
       </c>
       <c r="G77" t="n">
-        <v>-4614359.729600001</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2976,18 +2863,19 @@
         <v>892.5873</v>
       </c>
       <c r="G78" t="n">
-        <v>-4615252.316900001</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3009,18 +2897,19 @@
         <v>66</v>
       </c>
       <c r="G79" t="n">
-        <v>-4615186.316900001</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3042,18 +2931,19 @@
         <v>25850</v>
       </c>
       <c r="G80" t="n">
-        <v>-4589336.316900001</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3075,18 +2965,19 @@
         <v>1000</v>
       </c>
       <c r="G81" t="n">
-        <v>-4588336.316900001</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3108,18 +2999,19 @@
         <v>387130.2697</v>
       </c>
       <c r="G82" t="n">
-        <v>-4201206.047200001</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3141,18 +3033,19 @@
         <v>1310</v>
       </c>
       <c r="G83" t="n">
-        <v>-4199896.047200001</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3174,18 +3067,19 @@
         <v>1297.3533</v>
       </c>
       <c r="G84" t="n">
-        <v>-4201193.4005</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3207,18 +3101,19 @@
         <v>3093.4849</v>
       </c>
       <c r="G85" t="n">
-        <v>-4198099.915600001</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3240,18 +3135,19 @@
         <v>102.0098</v>
       </c>
       <c r="G86" t="n">
-        <v>-4197997.905800001</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3273,18 +3169,19 @@
         <v>548353.5011</v>
       </c>
       <c r="G87" t="n">
-        <v>-3649644.404700001</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3306,18 +3203,19 @@
         <v>52457.00245700245</v>
       </c>
       <c r="G88" t="n">
-        <v>-3649644.404700001</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3339,18 +3237,19 @@
         <v>100072.1009</v>
       </c>
       <c r="G89" t="n">
-        <v>-3649644.404700001</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3372,18 +3271,19 @@
         <v>100.2126</v>
       </c>
       <c r="G90" t="n">
-        <v>-3649644.404700001</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3405,18 +3305,19 @@
         <v>5467.257642997543</v>
       </c>
       <c r="G91" t="n">
-        <v>-3644177.147057003</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3438,18 +3339,17 @@
         <v>100.299</v>
       </c>
       <c r="G92" t="n">
-        <v>-3644277.446057003</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3471,18 +3371,15 @@
         <v>103200</v>
       </c>
       <c r="G93" t="n">
-        <v>-3747477.446057003</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3504,18 +3401,15 @@
         <v>1621.3332</v>
       </c>
       <c r="G94" t="n">
-        <v>-3745856.112857003</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3537,18 +3431,15 @@
         <v>1300</v>
       </c>
       <c r="G95" t="n">
-        <v>-3747156.112857003</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3570,18 +3461,15 @@
         <v>100.2999</v>
       </c>
       <c r="G96" t="n">
-        <v>-3747156.112857003</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3603,18 +3491,15 @@
         <v>30174.4327</v>
       </c>
       <c r="G97" t="n">
-        <v>-3777330.545557003</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3636,18 +3521,15 @@
         <v>28758.0611</v>
       </c>
       <c r="G98" t="n">
-        <v>-3748572.484457003</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3669,18 +3551,15 @@
         <v>62</v>
       </c>
       <c r="G99" t="n">
-        <v>-3748634.484457003</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3702,18 +3581,15 @@
         <v>63</v>
       </c>
       <c r="G100" t="n">
-        <v>-3748697.484457003</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3735,18 +3611,15 @@
         <v>2557.5022</v>
       </c>
       <c r="G101" t="n">
-        <v>-3751254.986657003</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3768,18 +3641,15 @@
         <v>15383.0407</v>
       </c>
       <c r="G102" t="n">
-        <v>-3766638.027357003</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3801,18 +3671,15 @@
         <v>150000</v>
       </c>
       <c r="G103" t="n">
-        <v>-3916638.027357003</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3834,18 +3701,15 @@
         <v>1297.3533</v>
       </c>
       <c r="G104" t="n">
-        <v>-3917935.380657003</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3867,18 +3731,15 @@
         <v>65</v>
       </c>
       <c r="G105" t="n">
-        <v>-3917870.380657003</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3900,18 +3761,15 @@
         <v>324410.467</v>
       </c>
       <c r="G106" t="n">
-        <v>-4242280.847657003</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3933,18 +3791,15 @@
         <v>1500</v>
       </c>
       <c r="G107" t="n">
-        <v>-4240780.847657003</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3966,18 +3821,15 @@
         <v>64452.5849</v>
       </c>
       <c r="G108" t="n">
-        <v>-4176328.262757002</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3999,18 +3851,15 @@
         <v>25707.715</v>
       </c>
       <c r="G109" t="n">
-        <v>-4150620.547757003</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4032,18 +3881,15 @@
         <v>3197.3406</v>
       </c>
       <c r="G110" t="n">
-        <v>-4153817.888357003</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4065,18 +3911,15 @@
         <v>12000</v>
       </c>
       <c r="G111" t="n">
-        <v>-4153817.888357003</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4098,18 +3941,15 @@
         <v>200.0251287850232</v>
       </c>
       <c r="G112" t="n">
-        <v>-4154017.913485788</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4131,18 +3971,15 @@
         <v>10566.9094</v>
       </c>
       <c r="G113" t="n">
-        <v>-4164584.822885788</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4164,18 +4001,15 @@
         <v>63</v>
       </c>
       <c r="G114" t="n">
-        <v>-4164521.822885788</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4197,18 +4031,15 @@
         <v>42044.4065</v>
       </c>
       <c r="G115" t="n">
-        <v>-4206566.229385788</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4230,18 +4061,15 @@
         <v>5000</v>
       </c>
       <c r="G116" t="n">
-        <v>-4206566.229385788</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4263,18 +4091,15 @@
         <v>2500</v>
       </c>
       <c r="G117" t="n">
-        <v>-4206566.229385788</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4296,18 +4121,15 @@
         <v>3012.022946246851</v>
       </c>
       <c r="G118" t="n">
-        <v>-4203554.206439541</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4329,18 +4151,15 @@
         <v>181579.464</v>
       </c>
       <c r="G119" t="n">
-        <v>-4385133.67043954</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4362,18 +4181,15 @@
         <v>100.2134</v>
       </c>
       <c r="G120" t="n">
-        <v>-4385033.457039541</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4395,18 +4211,15 @@
         <v>20154.4502</v>
       </c>
       <c r="G121" t="n">
-        <v>-4405187.90723954</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4428,18 +4241,15 @@
         <v>31622.0583</v>
       </c>
       <c r="G122" t="n">
-        <v>-4405187.90723954</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4461,18 +4271,15 @@
         <v>89963.32635375315</v>
       </c>
       <c r="G123" t="n">
-        <v>-4315224.580885787</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4494,18 +4301,15 @@
         <v>63</v>
       </c>
       <c r="G124" t="n">
-        <v>-4315161.580885787</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4527,18 +4331,15 @@
         <v>3375.4274</v>
       </c>
       <c r="G125" t="n">
-        <v>-4318537.008285788</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4560,18 +4361,15 @@
         <v>4830.9165</v>
       </c>
       <c r="G126" t="n">
-        <v>-4318537.008285788</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4593,18 +4391,15 @@
         <v>63</v>
       </c>
       <c r="G127" t="n">
-        <v>-4318474.008285788</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4626,18 +4421,15 @@
         <v>135519.77</v>
       </c>
       <c r="G128" t="n">
-        <v>-4453993.778285787</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4659,18 +4451,15 @@
         <v>8270.696</v>
       </c>
       <c r="G129" t="n">
-        <v>-4453993.778285787</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4692,18 +4481,15 @@
         <v>126479.3012</v>
       </c>
       <c r="G130" t="n">
-        <v>-4580473.079485787</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4725,18 +4511,15 @@
         <v>65</v>
       </c>
       <c r="G131" t="n">
-        <v>-4580408.079485787</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4758,18 +4541,15 @@
         <v>51213.4739</v>
       </c>
       <c r="G132" t="n">
-        <v>-4631621.553385787</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4791,18 +4571,15 @@
         <v>41844.1382</v>
       </c>
       <c r="G133" t="n">
-        <v>-4631621.553385787</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4824,18 +4601,15 @@
         <v>53006.1095</v>
       </c>
       <c r="G134" t="n">
-        <v>-4631621.553385787</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4857,18 +4631,15 @@
         <v>65</v>
       </c>
       <c r="G135" t="n">
-        <v>-4631556.553385787</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4890,18 +4661,15 @@
         <v>6000</v>
       </c>
       <c r="G136" t="n">
-        <v>-4637556.553385787</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4923,18 +4691,15 @@
         <v>65</v>
       </c>
       <c r="G137" t="n">
-        <v>-4637491.553385787</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4956,18 +4721,15 @@
         <v>281011.1903</v>
       </c>
       <c r="G138" t="n">
-        <v>-4918502.743685787</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4989,18 +4751,15 @@
         <v>47451.6242</v>
       </c>
       <c r="G139" t="n">
-        <v>-4918502.743685787</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5022,18 +4781,15 @@
         <v>25022.1986</v>
       </c>
       <c r="G140" t="n">
-        <v>-4893480.545085787</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5055,18 +4811,15 @@
         <v>25647.53240649168</v>
       </c>
       <c r="G141" t="n">
-        <v>-4867833.012679296</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5088,18 +4841,15 @@
         <v>100195.7396</v>
       </c>
       <c r="G142" t="n">
-        <v>-4968028.752279296</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5121,18 +4871,15 @@
         <v>30327.9573</v>
       </c>
       <c r="G143" t="n">
-        <v>-4998356.709579295</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5154,18 +4901,15 @@
         <v>2000</v>
       </c>
       <c r="G144" t="n">
-        <v>-5000356.709579295</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5187,18 +4931,15 @@
         <v>1000</v>
       </c>
       <c r="G145" t="n">
-        <v>-5001356.709579295</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5220,18 +4961,15 @@
         <v>5031.9425</v>
       </c>
       <c r="G146" t="n">
-        <v>-5006388.652079295</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5253,18 +4991,15 @@
         <v>16988.2697</v>
       </c>
       <c r="G147" t="n">
-        <v>-5023376.921779295</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5286,18 +5021,15 @@
         <v>383067.5961</v>
       </c>
       <c r="G148" t="n">
-        <v>-5023376.921779295</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5319,18 +5051,15 @@
         <v>49217.0919</v>
       </c>
       <c r="G149" t="n">
-        <v>-4974159.829879295</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5352,18 +5081,15 @@
         <v>22715.222</v>
       </c>
       <c r="G150" t="n">
-        <v>-4996875.051879295</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5385,18 +5111,15 @@
         <v>64</v>
       </c>
       <c r="G151" t="n">
-        <v>-4996811.051879295</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5418,18 +5141,15 @@
         <v>15300</v>
       </c>
       <c r="G152" t="n">
-        <v>-4981511.051879295</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5451,18 +5171,15 @@
         <v>348.3716</v>
       </c>
       <c r="G153" t="n">
-        <v>-4981859.423479295</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5484,18 +5201,15 @@
         <v>6991</v>
       </c>
       <c r="G154" t="n">
-        <v>-4981859.423479295</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5517,18 +5231,15 @@
         <v>3008</v>
       </c>
       <c r="G155" t="n">
-        <v>-4981859.423479295</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5550,18 +5261,15 @@
         <v>347949.1581</v>
       </c>
       <c r="G156" t="n">
-        <v>-5329808.581579295</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5583,18 +5291,15 @@
         <v>65</v>
       </c>
       <c r="G157" t="n">
-        <v>-5329743.581579295</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5616,18 +5321,15 @@
         <v>44364.345</v>
       </c>
       <c r="G158" t="n">
-        <v>-5374107.926579295</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
